--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4E45A9-9631-5C47-BA56-B85ABC530F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E466D-C773-C346-B6CA-A7EC2B2E6FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="3060" windowWidth="49780" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="3060" windowWidth="49780" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -553,31 +553,6 @@
          &lt;span class="sr-only"&gt;Next&lt;/span&gt;
     &lt;/a&gt;
 &lt;/div&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-003-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wawati TC"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>早餐麥片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,6 +709,10 @@
 &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">   2021/4/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -742,7 +721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -766,13 +745,6 @@
       <color rgb="FF000000"/>
       <name val="PMingLiU"/>
       <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Wawati TC"/>
-      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1110,10 +1082,10 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1190,7 @@
         <v>44186</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
@@ -1291,7 +1263,7 @@
         <v>43921</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>34</v>
@@ -1326,10 +1298,10 @@
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79E466D-C773-C346-B6CA-A7EC2B2E6FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAFF5CF-57D6-6B47-9056-3FA2BDE8B39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="3060" windowWidth="49780" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="8100" windowWidth="49780" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,15 +286,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300g $145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1包 - $70, 3包 - $200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本摩斯漢堡集團的魔術食品, 嚴選國產新鮮杏鮑菇. 專業鎖水技術, 日本傳統風味</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -713,6 +705,93 @@
     <t xml:space="preserve">   2021/4/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>$145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>產品特色：
+&lt;ul&gt;
+   &lt;li&gt;日本摩斯漢堡集團的魔術食品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>嚴選國產新鮮杏鮑菇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. &lt;/li&gt;
+   &lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專業鎖水技術</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">日本傳統風味&lt;/li&gt;
+   &lt;li&gt;無添加防腐劑, 通過食品驗證 超安心&lt;/li&gt;
+   &lt;li&gt;咬了會爆漿 簡單、好吃、又健康&lt;/li&gt;
+&lt;/ul&gt;
+杏鮑菇營養豐富: 含膳食纖維、蛋白質、維生素、鈣、鎂、銅、鋅等礦物&lt;br&gt;
+料理方式：烤箱, 微波, 平底鍋, 氣炸鍋 &lt;br&gt;
+溫度: 200 度,  8分鐘 輕鬆端出美味料理 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -721,7 +800,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -747,6 +826,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -768,13 +854,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,10 +1171,10 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1125,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1160,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1169,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -1181,16 +1270,16 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" s="3">
         <v>44186</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
@@ -1201,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1210,10 +1299,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -1228,7 +1317,7 @@
         <v>0.75</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
@@ -1236,7 +1325,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -1245,7 +1334,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>28</v>
@@ -1263,45 +1352,48 @@
         <v>43921</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="358" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="356" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
+      <c r="J5" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAFF5CF-57D6-6B47-9056-3FA2BDE8B39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B46C92-CDBF-EE4B-8EED-D83BA8826E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="8100" windowWidth="49780" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="6200" windowWidth="49780" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,6 +792,95 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千張月亮蝦餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五片裝 一包 ＄250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$65-70, 全家一片 $64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">減醣月亮蝦餅
+&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>採用‼️千張（豆皮）‼️吃得健康無負擔，口感讚也有飽足感。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>➡️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>的確是減醣者的福音，如果不是減醣者換換口味也不錯喔！^_^
+&lt;br&gt;
+🌟氣炸：設定180度12分鐘，灑上胡椒鹽即可上桌子！😀</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-0005" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0005-千張月亮蝦餅-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0005-千張月亮蝦餅-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0005-千張月亮蝦餅-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0005" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0005" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">110克 / 包 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -800,7 +889,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -833,6 +922,12 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -854,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -864,6 +959,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,13 +1266,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1284,7 @@
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
@@ -1396,6 +1494,38 @@
         <v>48</v>
       </c>
     </row>
+    <row r="6" spans="1:15" ht="388" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B46C92-CDBF-EE4B-8EED-D83BA8826E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC07420-AAAB-DC4E-BE2C-E2DFBBC9662E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="6200" windowWidth="49780" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5980" yWindow="1920" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,332 @@
     <t xml:space="preserve">110克 / 包 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金典回味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆酥朋 泡芙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三盒以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單餡：原味/巧克力/咖啡/芝麻 - $145
+雙餡：藍莓/草莓/覆盆子/鳳梨 - $180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單餡:$145, 雙餡:$180 + 運費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湊三盒免運費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷凍保存，外酥內冰口感極佳；烤3分鐘，像炸冰淇淋哦
+最佳賞味期：冷凍10天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳吟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已關團</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="GB-0006-豆酥朋泡芙-01.jpg" class="img-fluid style="width:600px"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dosuper.com.tw/mall/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在熱賣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ASAHI 濃郁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>玉米濃湯飲料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量: 185克，產地:日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$45/罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10罐 $350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🇯🇵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日本販賣機今年爆紅商品！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥🔥🔥🔥&lt;br&gt;
+🌽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>喝得到粒粒分明的飽滿玉米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨👅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日本國產奶油製成的濃湯　濃郁好喝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">😋😋
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美味濃湯～清新香甜讓人每一口都滿足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">🤤🤤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">方便攜帶的美味新選擇，
+第一次在日本超市買來喝，就真的愛上它，加熱也非常方便用熱水整罐泡著就會溫溫的。 &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保存方法：
+請置於陰涼處常溫保存　, 開封後請盡速食用完畢。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-0007" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="4"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0007" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0007" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>丹露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>波浪伸縮椅</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1張 $280, 2張 $500_x0010__x0000_₠_x0000_ƚ_x0000_脹_x0000__x0001__x000C__x0005_7_x0000__x0000__x0000__x0000__x0001__x0000_U_x0000__x000F_耀_x000F_不佔空間外出攜帶又方便的功能椅_x0001__x000C__x0005_7_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䁗_x0000__x0000_瀀䁽_x0000__x0000_　䁱_x0000__x0000_瀀䁾_x0000__x0000__x0000_䁲_x0000__x0000_退䁷_x0000__x0000_䁴_x0000__x0000_⠀䁳_x0000__x0000_䁷_x0000__x0000_耀䁭_x0000__x0000_　䁾_x0000__x0000_က䁨_x0000__x0000_㠀䂂_x0000__x0000_ꀀ䁢_x0000__x0000_ 䂆_x0000__x0000_ꀀ䁢_x0000__x0000_頀䂉_x0000__x0000_ꀀ䁢_x0000__x0000_䀀䂌_x0000__x0000_쀀䁦_x0000__x0000_䂎_x0000__x0000_䁪_x0000__x0000_ᨀ䂐_x0000__x0000_ࠀ䁱_x0000__x0000_쀀䂐_x0000__x0000_ꀀ䁴_x0000__x0000_쀀䂐_x0000__x0000_䁸_x0000__x0000_쀀䂐_x0000__x0000_　䁽_x0000__x0000_ 䂐_x0000__x0000_㐀䂀_x0000__x0000__x0000_䂏_x0000__x0000_퀀䂁_x0000__x0000_ 䂌_x0000__x0000_䂂_x0000__x0000_䠀䂊_x0000__x0000_ꀀ䂃_x0000__x0000_䂃_x0000__x0000_␀䂅_x0000__x0000_倀䁻_x0000__x0000_ꠀ䂆_x0000__x0000_䀀䁶_x0000__x0000__x0000_䂈_x0000__x0000_怀䁯_x0000__x0000_렀䂉_x0000__x0000_䁨_x0000__x0000_䐀䂌_x0000__x0000_耀䁢_x0000__x0000_퀀䂎_x0000__x0000_耀䁢_x0000__x0000_ﰀ䂐_x0000__x0000_耀䁢_x0000__x0000_렀䂒_x0000__x0000_怀䁪_x0000__x0000_㨀䂔_x0000__x0000_ 䁱_x0000__x0000_밀䂕_x0000__x0000_뀀䁸_x0000__x0000_萀䂖_x0000__x0000_ 䂀_x0000__x0000_䰀䂗_x0000__x0000_쀀䂄_x0000__x0000_䰀䂗_x0000__x0000__xD800_䂉_x0000__x0000_䰀䂗_x0000__x0000_밀䂍_x0000__x0000_稀䂖_x0000__x0000_퀀䂐_x0000__x0000_ꠀ䂕_x0000__x0000__xDC00_䂑_x0000__x0000_က䂔_x0000__x0000_䂒_x0000__x0000_砀䂒_x0000__x0000_ﰀ䂒_x0000__x0000_琀䂐_x0000__x0000_᐀䂐_x0000__x0000_㰀䂐_x0000__x0000_뀀䂏_x0000__x0000_栀䂒_x0000__x0000_ﰀ䂌_x0000__x0000_萀䂓_x0000__x0000_䠀䂊_x0000__x0000_ꀀ䂔_x0000__x0000__x0000_䂅_x0000__x0000_ꀀ䂔_x0000__x0000__x0000_䁿_x0000__x0000_ꀀ䂔_x0000__x0000_䁹_x0000__x0000_鸀䂓_x0000__x0000_䁴_x0000__x0000_鰀䂒_x0000__x0000_䁴_x0000__x0000_　䂑_x0000__x0000_䁴_x0000__x0000_䂏_x0000__x0000_耀䁸_x0000__x0000_倀䂎_x0000__x0000__x0000_䁼_x0000__x0000_렀䂌_x0000__x0000_搀䂅_x0000__x0000_ఀ䂋_x0000__x0000_저䂌_x0000__x0000_怀䂉_x0000__x0000_蠀䂏_x0000__x0000_ 䂈_x0000__x0000_쐀䂑_x0000__x0000_䠀䂆_x0000__x0000_렀䂒_x0000__x0000_琀䂃_x0000__x0000_가䂓_x0000__x0000_ꀀ䂀_x0000__x0000_가䂓_x0000__x0000_䁹_x0000__x0000_가䂓_x0000__x0000_退䁲_x0000__x0000_ꀀ䂒_x0000__x0000_　䁨_x0000__x0000_鐀䂑_x0000__x0000_耀䁖_x0000__x0000_㰀䂏_x0000__x0000_䀀䁀_x0000__x0000_倀䂋_x0000__x0000__x0000_쀹_x0000__x0000_栀䂆_x0000__x0000__x0000_쀹_x0000__x0000_　䂀_x0000__x0000__x0000_쀹_x0000__x0000_䁷_x0000__x0000_耀䁀_x0000__x0000_ 䁯_x0000__x0000_쀀䁖_x0000__x0000_退䁥_x0000__x0000_䁩_x0000__x0000__x0000_䁘_x0000__x0000_䀀䁴_x0000__x0000__x0000_䁗_x0000__x0000_瀀䁽_x0000__x0000__x0000_䁗_x0000__x0000_瀀䁽_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000_憈ॣ_x0001__x0000_所ॣ_x0001__x0000_ꕨॣ_x0001__x0000__x0000__x0000__x0000__x0000__x0000_㌌㰀_x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x0015__x0000__x0000__x0000__x0000_㍆㌌㰀㘐먡翢_x0000_ꡈখ_x0001__x0000_ꡈখ_x0001__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_檠쀉翢_x0000_ꡈখ_x0001__x0000_®怀_x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀⹈⹈⸔㛧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ā_x0000_-_x0000_-_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㟌먡翢_x0000_ꡈখ_x0001__x0000_.䀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000_㯘-_x0000_-_x0000_㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㙘প_x0001__x0000_ꡈখ_x0001__x0000__x0000_䀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000_@_x0000__x0000__x000F__x0000__x0000__x0000__x0000__x0000__x0000__x0000_犸ॣ_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌌㰀_x0003__x0000__x0000__x0000_ꡈখ_x0001__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000_ā㬁㯘㰀
+_x0000_蒀_x001E__x0000_ _x0000_ð_x0001__x0000__x0004__x0000_2_x0000_움-_x0000_Ɛ_x0000_ʀ_x0001__x0000__x0004__x0000__x0005__x0000_䧰_x0002_㰀_x0000_㰀_x0000__x0001__x0000__x0004__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000__x0003__x0000__xFFFF__xFFFF__x0000__x0000__x0000_渂䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_渨䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_湌䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_
+_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㰀_x0000__x0000__x0000__x0000_湳䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000_㪀	ᨀO_x0000__x0010__x0000__x0000__x0000_Ǡ_x0000__x0000_ஸ_x0000_΄_x0000_冀_x0001_冀_x0001__x0001__x0000__x0000__x0000__xFFFF__xFFFF__xFFFF__xFFFF_2_x0000_ৄ_x0000_΄_x0000__x0000__x0000_香_x0011__x0000__x0000_蚠_x0001_Ϩ_x0000__x001E__x0000_Ϩ_x0000_퀀_x0007__x0000__x0000_帰먪翢_x0000__x0000_㯘_x0000__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㬀㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000_`_x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000_!_x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000_ꡈখ_x0001__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000_ꡈখ_x0001__x0000_㘘먡翢_x0000__x0000__x0000__x0000__x0000_X_x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x000D__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ø_x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000_	_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0018__x0000_㯘㰀_x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x0011__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0018__x0000_㯘㰀_x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x0011__x0000__x0000__x0000_㌀㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌀㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㌀㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_捘ॣ_x0001__x0000__x0000__x0000__x0000__x0000_㸔먡翢_x0000_ꡈখ_x0001__x0000_Ă䀀_x0000__x0000_㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㯘㰀䁌먡翢_x0000_ꡈখ_x0001__x0000_Ђ䀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀䡤먡翢_x0000_ꡈখ_x0001__x0000_Ђ䀀_x0000__x0000_㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀偼먡翢_x0000_ꡈখ_x0001__x0000_Ђ䀀_x0000__x0000_㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000_㘐먡翢_x0000_ꡈখ_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_쀀䁔_x0000__x0000_䀀䂈_x0000__x0000_쀀䁔_x0000__x0000__x0000_쁙_x0000__x0000_䁢_x0000__x0000__x0000_쁙_x0000__x0000_䁢_x0000__x0000_　䂆_x0000__x0000_쀀䁰_x0000__x0000_　䂆_x0000__x0000__x0000_䁯_x0000__x0000_蠀䂃_x0000__x0000_ꀀ䁫_x0000__x0000_退䂀_x0000__x0000_ 䁧_x0000__x0000_退䁺_x0000__x0000_耀䁭_x0000__x0000_倀䁵_x0000__x0000_怀䁰_x0000__x0000_退䁰_x0000__x0000_怀䁰_x0000__x0000_ꀀ䁨_x0000__x0000_怀䁰_x0000__x0000_ 䁦_x0000__x0000_က䁰_x0000__x0000_䀀䁤_x0000__x0000_ 䁯_x0000__x0000_ 䁣_x0000__x0000_䁭_x0000__x0000_ 䁢_x0000__x0000_쀀䁫_x0000__x0000_耀䁡_x0000__x0000_쀀䁨_x0000__x0000_䀀䁡_x0000__x0000_耀䁧_x0000__x0000_䀀䁡_x0000__x0000_䁥_x0000__x0000_耀䁡_x0000__x0000__x0000_䁤_x0000__x0000_쀀䁡_x0000__x0000_䁦_x0000__x0000_쀀䁑_x0000__x0000__x0000_䁮_x0000__x0000__x0000_䁒_x0000__x0000_耀䁱_x0000__x0000__x0000_䁕_x0000__x0000_䁲_x0000__x0000_쀀䁚_x0000__x0000_䁳_x0000__x0000_䀀䁟_x0000__x0000_耀䁴_x0000__x0000_怀䁣_x0000__x0000_退䁴_x0000__x0000_ꀀ䁨_x0000__x0000_倀䁴_x0000__x0000_퀀䁰_x0000__x0000_뀀䁲_x0000__x0000_쀀䁵_x0000__x0000_ꀀ䁯_x0000__x0000_　䁻_x0000__x0000_쀀䁱_x0000__x0000_뀀䂀_x0000__x0000_瀀䁳_x0000__x0000_ꠀ䂃_x0000__x0000_䁴_x0000__x0000_蠀䂆_x0000__x0000_䁴_x0000__x0000_䀀䂈_x0000__x0000_쀀䁔_x0000__x0000_䀀䂈_x0000__x0000_쀀䁔_x0000__x0000_䀀䂈_x0000__x0000_蠀䂌_x0000__x0000_ꀀ䁹_x0000__x0000_倀䂃_x0000__x0000_ꀀ䁹_x0000__x0000_倀䂃_x0000__x0000_瀀䁰_x0000__x0000_䠀䂃_x0000__x0000_怀䁧_x0000__x0000_렀䂂_x0000__x0000_쀀䁞_x0000__x0000_頀䂁_x0000__x0000_䀀䁒_x0000__x0000_ࠀ䂃_x0000__x0000__x0000_䁀_x0000__x0000_栀䂄_x0000__x0000__x0000_䁗_x0000__x0000_᠀䂅_x0000__x0000_䀀䁥_x0000__x0000_ 䂅_x0000__x0000_ꀀ䁰_x0000__x0000_ 䂅_x0000__x0000_퀀䁰_x0000__x0000_砀䂆_x0000__x0000_瀀䁰_x0000__x0000_저䂇_x0000__x0000_쀀䁯_x0000__x0000_᠀䂉_x0000__x0000_怀䁮_x0000__x0000_뀀䂉_x0000__x0000__x0000_䁲_x0000__x0000_㠀䂈_x0000__x0000_쀀䁲_x0000__x0000_뀀䂆_x0000__x0000_倀䁳_x0000__x0000_ 䂅_x0000__x0000_뀀䁳_x0000__x0000_ 䂅_x0000__x0000_䀀䁶_x0000__x0000_렀䂊_x0000__x0000_䀀䁶_x0000__x0000_렀䂊_x0000__x0000_䁫_x0000__x0000_ 䂉_x0000__x0000_ 䁪_x0000__x0000_怀䂇_x0000__x0000_耀䁨_x0000__x0000_砀䂅_x0000__x0000_䀀䁧_x0000__x0000_䂅_x0000__x0000_쀀䁠_x0000__x0000_뀀䂇_x0000__x0000_ 䁢_x0000__x0000_䠀䂉_x0000__x0000_ꀀ䁣_x0000__x0000_렀䂊_x0000__x0000_䀀䁥_x0000__x0000_렀䂊_x0000__x0000__x0000_䁜_x0000__x0000_렀䂊_x0000__x0000__x0000_䁗_x0000__x0000_怀䂊_x0000__x0000_䀀䁔_x0000__x0000_렀䂉_x0000__x0000_䀀䁔_x0000__x0000_䂈_x0000__x0000_䀀䁔_x0000__x0000_　䂈_x0000__x0000_耀䁔_x0000__x0000_倀䂇_x0000__x0000_쀀䁔_x0000__x0000_퀀䂇_x0000__x0000__x0000_䀼_x0000__x0000_䠀䂊_x0000__x0000__x0000_䀼_x0000__x0000_저䂋_x0000__x0000__x0000_䀼_x0000__x0000_蠀䂌_x0000__x0000_耀䁈_x0000__x0000_蠀䂌_x0000__x0000_쀀䁖_x0000__x0000_蠀䂌_x0000__x0000_ꀀ䁹_x0000__x0000_蠀䂌_x0000__x0000_ꀀ䁹_x0000__x0000_렀䂃_x0000__x0000_　䂂_x0000__x0000_⠀䂇_x0000__x0000_　䂂_x0000__x0000_⠀䂇_x0000__x0000_က䂀_x0000__x0000_堀䂂_x0000__x0000_က䂀_x0000__x0000_堀䂂_x0000__x0000_䁼_x0000__x0000_砀䂍_x0000__x0000_䁼_x0000__x0000_砀䂍_x0000__x0000_က䂀_x0000__x0000_ 䂉_x0000__x0000_က䂀_x0000__x0000_ 䂉_x0000__x0000_　䂂_x0000__x0000_렀䂌_x0000__x0000_　䂂_x0000__x0000_렀䂌_x0000__x0000_쀀䂃_x0000__x0000_　䂅_x0000__x0000_쀀䂃_x0000__x0000_ꀀ䂅_x0000__x0000_倀䂄_x0000__x0000_က䂆_x0000__x0000_䂄_x0000__x0000_砀䂆_x0000__x0000_ꠀ䂅_x0000__x0000_ꀀ䂍_x0000__x0000_ꠀ䂅_x0000__x0000_ꀀ䂍_x0000__x0000_瀀䂇_x0000__x0000_堀䂇_x0000__x0000_瀀䂇_x0000__x0000_退䂇_x0000__x0000__x0000_䂈_x0000__x0000_저䂇_x0000__x0000_ꀀ䂈_x0000__x0000_䂇_x0000__x0000_䀀䂉_x0000__x0000_᠀䂆_x0000__x0000_ꀀ䂉_x0000__x0000_䂅_x0000__x0000_䂈_x0000__x0000_頀䂅_x0000__x0000_⠀䂈_x0000__x0000_䠀䂅_x0000__x0000_瀀䂇_x0000__x0000_怀䂁_x0000__x0000_瀀䂇_x0000__x0000_怀䂁_x0000__x0000_ꠀ䂅_x0000__x0000_䠀䂄_x0000__x0000_ꠀ䂅_x0000__x0000_瀀䂃_x0000__x0000_瀀䂄_x0000__x0000_怀䂂_x0000__x0000_怀䂃_x0000__x0000_ 䂁_x0000__x0000_瀀䂂_x0000__x0000_䠀䂂_x0000__x0000_ࠀ䂁_x0000__x0000_저䂂_x0000__x0000_栀䂁_x0000__x0000_䀀䂃_x0000__x0000_저䂁_x0000__x0000_렀䂃_x0000__x0000_　䂂_x0000__x0000_렀䂃_x0000__x0000_　䂂_x0000__x0000__x0000_䁵_x0000__x0000_뀀䂁_x0000__x0000__x0000_䁵_x0000__x0000_瀀䁿_x0000__x0000_退䁼_x0000__x0000_瀀䁿_x0000__x0000_䁺_x0000__x0000_䁻_x0000__x0000_䁸_x0000__x0000_倀䁸_x0000__x0000_耀䁶_x0000__x0000_ꀀ䁴_x0000__x0000_耀䁶_x0000__x0000_怀䁱_x0000__x0000_뀀䁽_x0000__x0000_怀䁱_x0000__x0000_퀀䁼_x0000__x0000_ 䁪_x0000__x0000_뀀䁻_x0000__x0000_耀䁢_x0000__x0000_倀䁺_x0000__x0000_耀䁗_x0000__x0000_䁷_x0000__x0000_쀀䁔_x0000__x0000_倀䁵_x0000__x0000_耀䁁_x0000__x0000_ꀀ䁲_x0000__x0000__x0000_쁉_x0000__x0000_쀀䁵_x0000__x0000__x0000_쁘_x0000__x0000_倀䁸_x0000__x0000__x0000_쀮_x0000__x0000_倀䁺_x0000__x0000__x0000_䀹_x0000__x0000_뀀䁻_x0000__x0000__x0000_䀹_x0000__x0000_က䁼_x0000__x0000__x0000_䀹_x0000__x0000_瀀䁼_x0000__x0000__x0000_䀶_x0000__x0000_퀀䁼_x0000__x0000__x0000_䀰_x0000__x0000_怀䁾_x0000__x0000__x0000_쀮_x0000__x0000_က䂀_x0000__x0000__x0000_쁃_x0000__x0000_ࠀ䂁_x0000__x0000_耀쁊_x0000__x0000_䂁_x0000__x0000_쀀쁐_x0000__x0000_᠀䂃_x0000__x0000_쀀쁒_x0000__x0000_뀀䂄_x0000__x0000_䀀쁓_x0000__x0000_ࠀ䂆_x0000__x0000_耀쁓_x0000__x0000_頀䂇_x0000__x0000_쀀쁓_x0000__x0000_堀䂉_x0000__x0000_쀀쁓_x0000__x0000_ꀀ䂍_x0000__x0000_쀀쁓_x0000__x0000_᠀䂎_x0000__x0000__x0000_쀪_x0000__x0000_ࠀ䂌_x0000__x0000__x0000_쀰_x0000__x0000_堀䂊_x0000__x0000__x0000_쀲_x0000__x0000_ࠀ䂉_x0000__x0000__x0000_쀲_x0000__x0000_栀䂇_x0000__x0000__x0000_쀲_x0000__x0000_䂅_x0000__x0000__x0000_쀱_x0000__x0000_렀䂄_x0000__x0000__x0000_쀱_x0000__x0000_栀䂃_x0000__x0000__x0000_쀰_x0000__x0000_堀䂂_x0000__x0000__x0000_쀤_x0000__x0000_頀䂁_x0000__x0000__x0000_䀀_x0000__x0000_퀀䂀_x0000__x0000__x0000_䀰_x0000__x0000_က䂀_x0000__x0000__x0000_䁃_x0000__x0000_쀀䁾_x0000__x0000_耀䁐_x0000__x0000__x0000_䁾_x0000__x0000_耀䁓_x0000__x0000_耀䁿_x0000__x0000_쀀䁠_x0000__x0000_堀䂀_x0000__x0000_耀䁩_x0000__x0000__xD800_䂀_x0000__x0000_ 䁲_x0000__x0000__xD800_䂀_x0000__x0000_က䁵_x0000__x0000_倀䁻_x0000__x0000_က䁵_x0000__x0000_耀䁽_x0000__x0000_뀀䁸_x0000__x0000_瀀䁿_x0000__x0000_倀䁼_x0000__x0000_蠀䂀_x0000__x0000__x0000_䂀_x0000__x0000_蠀䂀_x0000__x0000_뀀䂁_x0000__x0000__x0000_䁵_x0000__x0000_뀀䂁_x0000__x0000__x0000_䁵_x0000__x0000_뀀䂁_x0000__x0000_䁸_x0000__x0000_䂈_x0000__x0000__x0000_䁶_x0000__x0000_退䂇_x0000__x0000_瀀䁹_x0000__x0000_ࠀ䂆_x0000__x0000_　䁼_x0000__x0000_退䂄_x0000__x0000_　䁾_x0000__x0000_　䂃_x0000__x0000_耀䂀_x0000__x0000_ꀀ䂄_x0000__x0000_쀀䁾_x0000__x0000_က䂆_x0000__x0000_က䁼_x0000__x0000_耀䂇_x0000__x0000_䁸_x0000__x0000_䂈_x0000__x0000_䁸_x0000__x0000_䂈_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᭼諒翿_x0000__x0000__x0000__x0000__x0000_|_x0000__x0000__x0000_坙ⵥ俠ὶ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDE60_諗翿_x0000_巠諘翿_x0000_螹䱗青癥結̭怀_x0000_嵰̭怀_x0000_ꯠ̕怀_x0000_軠ə怀_x0000_ꥀǍ怀_x0000_䚐̭怀_x0000_呉㭮䏢桾一諒翿_x0000_㻐̋怀_x0000_螩䱗흒梺_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蘀諜翿_x0000_技̢怀_x0000__x0000__x0000__x0000__x0000__xDFB0_̠怀_x0000_綠諝翿_x0000_卹㡮ᳳ栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_擀諘翿_x0000_䕀̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_變論翿_x0000_ꯠə怀_x0000_⧀諓翿_x0000__x0000__x0000__x0000__x0000_ə怀_x0000_婀̭怀_x0000__x0000__x0000__x0000__x0000_⟀̢怀_x0000_狐̭怀_x0000_䡀̭怀_x0000_柰̭怀_x0000_ꔠ̓怀_x0000_籉搧ᚶ桮䈠論翿_x0000_긠諝翿_x0000_螩䱗青棑싀ɘ怀_x0000__x0000__x0000__x0000__x0000_⎹鐇咶䩂㌠諚翿_x0000_螩䱗Ꝓ桩ʹ沇枖䩂煐̢怀_x0000_䐠̭怀_x0000__x0000__x0000__x0000__x0000_̭怀_x0000__x0000__x0000__x0000__x0000_薹␗랙缒_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_呠諝翿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_潠諓翿_x0000_ﱀ諓翿_x0000_瀰̭怀_x0000_ꃠ諑翿_x0000_す㰹勿ൿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ퟠ諘翿_x0000_낀ə怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_螩䱗❒桠_x0000__x0000__x0000__x0000_㙙㰹勿ൿ䴠̢怀_x0000_螩䱗梺䥹੄廹栓㷠論翿_x0000__x0000__x0000__x0000__x0000_̣怀_x0000_♰̮怀_x0000_찠ə怀_x0000__x0000__x0000__x0000__x0000_Ⱐ諞翿_x0000_✹䠗⚖栓㘹䠗⚖栓娐̭怀_x0000_⣀諘翿_x0000_ᖠ諛翿_x0000_䥉Ṅ䏿桤満̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_﬐̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDE40_ə怀_x0000_呉╶䫦桶_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䲠諔翿_x0000__x0000__x0000__x0000__x0000_螩䱗梡_x0000__x0000__x0000__x0000_螩䱗㝒桬ə怀_x0000_瑐̛怀_x0000__x0000__x0000__x0000__x0000_螩䱗棒螩䱗蝒梽辠ə怀_x0000_䑹⵿䷵栓螩䱗青梱䍉⑲勳桶ֹ樗읔䍢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶰̝怀_x0000_呙╮䧴剿餀諓翿_x0000_檐̭怀_x0000_럠̣怀_x0000_勀̢怀_x0000_螩䱗蝒梹䥉╢䏴桡유̆怀_x0000_歐̭怀_x0000__x0000__x0000__x0000__x0000_兀̭怀_x0000_ꀐ̡怀_x0000__x0000__x0000__x0000__x0000_潠論翿_x0000_熀̭怀_x0000_쵐̑怀_x0000_螩䱗Ꝓ梡_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_撷欗梚_x0000__x0000__x0000__x0000_ᐠ論翿_x0000__x0000__x0000__x0000__x0000_銩䱔掲梚鵀̡怀_x0000__x0000__x0000__x0000__x0000_䥙ୄ䫹᩼䐠諗翿_x0000_塠諙翿_x0000_螩䱗흒棖_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_退먡翢_x0000_踠諕翿_x0000_䥉ไ䣹桧劐̝怀_x0000_휐̝怀_x0000_㫠̗怀_x0000__xDE80_諗翿_x0000_᷀諘翿_x0000_买̝怀_x0000__x0000__x0000__x0000__x0000_倠̭怀_x0000__x0000__x0000__x0000__x0000_螩䱗❒棔螹䱗읒癦䥙ॄ哤ᅲ_x0000__x0000__x0000__x0000_⍹㵹䫺栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_釀ə怀_x0000_揀諒翿_x0000__xDA60_諗翿_x0000_輠ɘ怀_x0000_螩䱗흒桢_x0000__x0000__x0000__x0000_声̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_馰̀怀_x0000__x0000__x0000__x0000__x0000_牀̭怀_x0000_顠諒翿_x0000_ꃠ諑翿_x0000_詐̓怀_x0000_䵐̢怀_x0000_螹䱗㝒癤_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_濐̭怀_x0000_諗翿_x0000__x0000__x0000__x0000__x0000_ᭀϘ怀_x0000__x0000__x0000__x0000__x0000_ə怀_x0000_伀̝怀_x0000__x0000__x0000__x0000__x0000_승䐷㐍爇_x0000__x0000__x0000__x0000_䥉Մ䣳桦_x0000__x0000__x0000__x0000_畀̭怀_x0000_壀̭怀_x0000_螩䱗桮_x0000__x0000__x0000__x0000_櫀̭怀_x0000_䌀̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䗐̢怀_x0000__xD9A0_諔翿_x0000_❠ˢ怀_x0000_螩䱗㝒桨죐̑怀_x0000_燠̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂑_x0000__x0000_䁽_x0000__x0000_䂑_x0000__x0000_耀䁶_x0000__x0000_娀䂑_x0000__x0000_렀䁰_x0000__x0000_퀀䂐_x0000__x0000_䁥_x0000__x0000_ꀀ䂏_x0000__x0000_쀀䁛_x0000__x0000_ꀀ䂍_x0000__x0000_耀䁇_x0000__x0000_쀀䂊_x0000__x0000__x0000_䀬_x0000__x0000_䂇_x0000__x0000__x0000_쀳_x0000__x0000_㠀䂄_x0000__x0000__x0000_쀳_x0000__x0000_䂀_x0000__x0000__x0000_쀳_x0000__x0000_䀀䁼_x0000__x0000__x0000_䀨_x0000__x0000_쀀䁶_x0000__x0000_耀䁅_x0000__x0000_퀀䁲_x0000__x0000_䁙_x0000__x0000_쀀䁭_x0000__x0000_耀䁤_x0000__x0000_耀䁩_x0000__x0000_䁯_x0000__x0000_䀀䁥_x0000__x0000_ꀀ䁵_x0000__x0000_䀀䁥_x0000__x0000_က䁽_x0000__x0000_䀀䁥_x0000__x0000_퀀䂓_x0000__x0000_䀀䁥_x0000__x0000_䂓_x0000__x0000_쀀䁥_x0000__x0000_ࠀ䂔_x0000__x0000_䀀䁦_x0000__x0000_ 䂔_x0000__x0000_耀䁧_x0000__x0000_⸀䂔_x0000__x0000_쀀䁨_x0000__x0000_㰀䂔_x0000__x0000_쀀䁪_x0000__x0000_䘀䂔_x0000__x0000_쀀䁬_x0000__x0000_倀䂔_x0000__x0000__x0000_䁰_x0000__x0000_倀䂔_x0000__x0000_耀䁱_x0000__x0000_倀䂔_x0000__x0000_退䁲_x0000__x0000_䘀䂔_x0000__x0000_ꀀ䁳_x0000__x0000_㰀䂔_x0000__x0000_㠀䁴_x0000__x0000_⸀䂔_x0000__x0000_퀀䁴_x0000__x0000_ 䂔_x0000__x0000_က䁵_x0000__x0000_ࠀ䂔_x0000__x0000_倀䁵_x0000__x0000_䂓_x0000__x0000_倀䁵_x0000__x0000_퀀䂓_x0000__x0000_倀䁵_x0000__x0000_怀䁾_x0000__x0000_倀䁵_x0000__x0000_쀀䁸_x0000__x0000_뀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000_ÿ_x0000__xFFFF_ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_昀뤳翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⰰ먠翢_x0000__x0000__x0000__x0000__x0000_㠠ɱ怀_x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_昀뤳翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x000D__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF_ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䀀먢翢_x0000__x0000__x0000__x0000_ࠀ_x0000__x0000__x0000__x0000_┰ব_x0001__x0000_䅀ढ़_x0001__x0000_伀ů怀_x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⌀ȧ怀_x0000__x0000__x0000__x0000__x0000_䐀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ﴠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_≀ȧ怀_x0000_୰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ູ崥ᘕ倫׀Ⱥ怀_x0000_☠ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ೀ̚怀_x0000_䇠Ⱥ怀_x0000_塉⑵哣栧∠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妩岐웮棳䵀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Р̚怀_x0000_⹐̚怀_x0000_ᖩ찄䒏棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⪐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ྐ̚怀_x0000__x0000__x0000__x0000__x0000_亀Ά怀_x0000__x0000__x0000__x0000__x0000_ዀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⊀ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹Ⅳ䏺栓_x0000__x0000__x0000__x0000_芩㈑웮棳_x0000__x0000__x0000__x0000_㎠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_摠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妠Ⱥ怀_x0000_ἠ̚怀_x0000_塙⥺ᗮ孫_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⍀ȧ怀_x0000_技̛怀_x0000_ʩ∕웮棳ᑠȺ怀_x0000_铠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_銩䡔棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ɰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_搰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㡸係ൿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_素̚怀_x0000_䖀Ⱥ怀_x0000_妩屆웮棳㠐̚怀_x0000_䬀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_新̛怀_x0000_牰̛怀_x0000_縐̚怀_x0000_ư̚怀_x0000_ᒠ̚怀_x0000_塙ⅴ䗤ൿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_▀ȧ怀_x0000__x0000__x0000__x0000__x0000_ᜠȺ怀_x0000_ᖩ찄䛝棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_礀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_一Ά怀_x0000_琠̛怀_x0000_䢀Ά怀_x0000_豈Ⱥ怀_x0000_Ɒ̚怀_x0000_塩㭳⛢栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䯀Ά怀_x0000_ᶠ̚怀_x0000_䢠Ⱥ怀_x0000_䬠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_垠̛怀_x0000_ﻠȺ怀_x0000_〰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_簰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䰠Ƚ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⍀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᮩ氮웮棳_x0000__x0000__x0000__x0000_拠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ʹ摗遖偲⓰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ԑ̚怀_x0000_璀̛怀_x0000_灠̛怀_x0000__x0000__x0000__x0000__x0000_称̚怀_x0000_࣐̚怀_x0000_⾠̚怀_x0000_勀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_净Ά怀_x0000_偀Ⱥ怀_x0000_㗐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ʩ棳_x0000__x0000__x0000__x0000_嶩屆웮棳䃠Ⱥ怀_x0000_ঐ̚怀_x0000_☀ȧ怀_x0000__x0000__x0000__x0000__x0000_篐̚怀_x0000__x0000__x0000__x0000__x0000_캩灇웮棳挐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_油䄖ჹ傓ࢠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_匀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⊰̚怀_x0000_ᎀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_＀Ⱥ怀_x0000_㜠̚怀_x0000_䩐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_傰̛怀_x0000_⢀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᫐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䨀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䭀̛怀_x0000_糀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_唰̛怀_x0000_塹❵ᗮ栓Ḁ̚怀_x0000__x0000__x0000__x0000__x0000_⁀Ⱥ怀_x0000_ʩ焷쏖棳Ⱥ怀_x0000_Ⱥ怀_x0000_⎠ȧ怀_x0000_쥀Ⱥ怀_x0000_ኩ䐦玐棱_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ހ̚怀_x0000__x0000__x0000__x0000__x0000_Ҁ̚怀_x0000__x0000__x0000__x0000__x0000_쥠Ⱥ怀_x0000_א̚怀_x0000__x0000__x0000__x0000__x0000_塉㭳濢桽䒀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ௐ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹❵ዮ栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_캩聗棳궹舡㑌倇Ⱥ怀_x0000_螩岑깖棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ⱀ̚怀_x0000_綀̚怀_x0000_⏠ȧ怀_x0000_ᦀ̚怀_x0000__x0000__x0000__x0000__x0000_䅀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌀̚怀_x0000__x0000__x0000__x0000__x0000_侩∖웮棳_x0000__x0000__x0000__x0000_ᲠȺ怀_x0000_삠Ⱥ怀_x0000_㋐̚怀_x0000__x0000__x0000__x0000__x0000_̚͠怀_x0000_䥠Ƚ怀_x0000_䦀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_玐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⋀ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ደ̚怀_x0000_偀Ά怀_x0000_ฐ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᩀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_嚀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹❵ხ栓⒐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ۀ̚怀_x0000_㓠̚怀_x0000__x0000__x0000__x0000__x0000_䞀Ⱥ怀_x0000_倀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_址Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_솠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᱐̚怀_x0000__x0000__x0000__x0000__x0000_爐̛怀_x0000_ⵠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙᭖仑堥容ґ皞倳_x0000__x0000__x0000__x0000_⎠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_煐̛怀_x0000_壀Ⱥ怀_x0000_⒀Ⱥ怀_x0000_⭐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_罠̚怀_x0000__x0000__x0000__x0000__x0000_結̛怀_x0000__x0000__x0000__x0000__x0000_侐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ჰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_稠̚怀_x0000_ᦩ梕웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_咀Ⱥ怀_x0000_塉❣䟚桱ᬀ̚怀_x0000_塉⑴䟳桡_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_漐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ሰ̚怀_x0000_䠀Ⱥ怀_x0000_䱀Ά怀_x0000_嗰̛怀_x0000_쀀Ⱥ怀_x0000_ហ̚怀_x0000_ﾠȺ怀_x0000_塹㭶仱栓㿠Ⱥ怀_x0000_䴠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_結̚怀_x0000__x0000__x0000__x0000__x0000_䲀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_馩桁웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶹䐦题傦_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⯠̚怀_x0000__x0000__x0000__x0000__x0000_ႀ̚怀_x0000_奀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_几Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㒰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_À̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᦩ嶿웮棳䮠̛怀_x0000_薩ఇ웮棳㛰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䞀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㵀Ⱥ怀_x0000_塙੔䧞ቡ塹ⱶዲ栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_垠Ⱥ怀_x0000_窰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_̚怀_x0000_冀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䈀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_皹䄖ჹ傓撩焖웮棳ⴀ̚怀_x0000_╠ȧ怀_x0000_䮀Ⱥ怀_x0000_隹Თᾝ倻⸠̚怀_x0000__x0000__x0000__x0000__x0000_塙ⅴ嗉ᩢ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDFA0_Ⱥ怀_x0000_猰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⌠ȧ怀_x0000_塉⥰䧴桡_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䲀Ά怀_x0000_塀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㘀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_✰̚怀_x0000__x0000__x0000__x0000__x0000_ဠ̚怀_x0000_̰̚怀_x0000_쯠0怀_x0000_ᡠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ຠȺ怀_x0000_콀Ⱥ怀_x0000_֠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_讹䢖⑶倢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_容ґ⟒傟_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_0怀_x0000_쁐0怀_x0000_ẹᱵ៟個_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妩槀웮棳䘠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_狐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙ⅺ哤᩼_x0000__x0000__x0000__x0000_⊠Ⱥ怀_x0000_塙ⅺᗸ孫_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䧀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ֹᰗ假_x0000__x0000__x0000__x0000_締̛怀_x0000_Ǡ̚怀_x0000_㘰̚怀_x0000__x0000__x0000__x0000__x0000_⊠ȧ怀_x0000__x0000__x0000__x0000__x0000_籠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_➐̚怀_x0000_쪠Ⱥ怀_x0000_塙᭖僑帥䨀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_र̚怀_x0000_ᕠ̚怀_x0000_塹ⱶỲ栓䋐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_婰̛怀_x0000_ﮰ0怀_x0000_ܠ̚怀_x0000_ᵀ̚怀_x0000_ᚰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_π̚怀_x0000_坠Ⱥ怀_x0000_Ẑ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ኩ䐦뎐棲_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_๰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_烀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙൓俻屽_x0000__x0000__x0000__x0000_屐̛怀_x0000_䳀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⏀ȧ怀_x0000_ྩ梕웮棳塙㩤槵ᱦ妩즶웮棳塙᭖僑堫ᗰ̚怀_x0000_￀Ⱥ怀_x0000_什Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_亠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶠Ⱥ怀_x0000_缀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙൓䟻屫ʹᙐ僷_x0000__x0000__x0000__x0000_ᐐ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_仠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_劐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_僀Ά怀_x0000_塙⵺以帢瀰̛怀_x0000_喹逦耖倓_x0000__x0000__x0000__x0000_䏀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_喠Ⱥ怀_x0000_繰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⓚȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_޹䡖〝傟鮹舡皞倳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⽀Ⱥ怀_x0000_塉⁠勿桶䛀Ά怀_x0000_䜀Ά怀_x0000_ᨐ̚怀_x0000_♰̚怀_x0000__x0000__x0000__x0000__x0000_䪀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_刀̛怀_x0000_占Ⱥ怀_x0000_塙൓嗉੦䠀Ά怀_x0000_ଐ̚怀_x0000_扐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ް̚怀_x0000_ℰ̚怀_x0000_乀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_䫀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䧀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_婢Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᮐ̚怀_x0000_흀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_墩엡왝棳淰̛怀_x0000_妩巀웮棳溰̛怀_x0000_塹⵻囤栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䪰̛怀_x0000_塩㩤⛵栓በ̚怀_x0000_猪Ⱥ怀_x0000_궹梥萼倳ﾀȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⑀ȧ怀_x0000_숰0怀_x0000_ῠȺ怀_x0000__x0000__x0000__x0000__x0000_䊩㷀웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_쀀0怀_x0000_⁀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⛐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_佀Ά怀_x0000_ʩ桇옖棳␠ȧ怀_x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㩳嗹൧⠠̚怀_x0000_調䙕倳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_秀̚怀_x0000_㔐̚怀_x0000__x0000__x0000__x0000__x0000_ຩ椥ʐ棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_孠̛怀_x0000__x0000__x0000__x0000__x0000_ৰ̚怀_x0000_Ề̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_堀̛怀_x0000_往̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_奐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᝀ̚怀_x0000_趀΅怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俀Ά怀_x0000_倀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_俀̛怀_x0000_㕀̚怀_x0000__x0000__x0000__x0000__x0000_䘰̛怀_x0000_Ⱥ怀_x0000_ᆠ̚怀_x0000_䲹ᱷ៟個_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉㩤濵桽塹㭶僱栓㈐̚怀_x0000_ၐ̚怀_x0000_℀̚怀_x0000_仐̛怀_x0000_挐̛怀_x0000_墹䄖ჹ傓塙♈俹ൠ_x0000__x0000__x0000__x0000_ᣀ̚怀_x0000_羐̚怀_x0000_提̛怀_x0000_⤠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_恰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䢠̛怀_x0000_塩⥺⛮栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙᭖僑崤_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䷠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_젠0怀_x0000__x0000__x0000__x0000__x0000_≠ȧ怀_x0000_␀ȧ怀_x0000_䄀Ⱥ怀_x0000_寀̛怀_x0000_╀ȧ怀_x0000__x0000__x0000__x0000__x0000_岀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_鮹舡⟒傟ર̚怀_x0000__x0000__x0000__x0000__x0000_ʩ奇萗棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잩䐿蛚棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_侩즶웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_涐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䡀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ʩ薒棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㒀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_␀Ⱥ怀_x0000_Ӡ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙⥻䗸 _x0000__x0000__x0000__x0000_ꞩ桁웮棳䦠Ⱥ怀_x0000_⾀Ⱥ怀_x0000_័̚怀_x0000_乀̛怀_x0000_■ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_辩䠅Ҕ棲_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⱥ怀_x0000_傀̛怀_x0000_①ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_▀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⽰̚怀_x0000__x0000__x0000__x0000__x0000_ഠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_箠̚怀_x0000_ᦩ⁅웮棳⫰̚怀_x0000_妩嶰웮棳穐̚怀_x0000_⺰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ꮀ̚怀_x0000_塙⵺以娠_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䟀Ά怀_x0000_䛀Ⱥ怀_x0000_⮀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_੐̚怀_x0000__x0000__x0000__x0000__x0000__xDDB0_0怀_x0000_ⓠȧ怀_x0000_0怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_༰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_樀̛怀_x0000_흰0怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_◠ȧ怀_x0000_ᤠ̚怀_x0000__x0000__x0000__x0000__x0000_簀̚怀_x0000_ꊹ䲇☒倊Ġ̚怀_x0000_캩聗薒棳塙⥻䗸Ḡ喐̛怀_x0000_ᾀ̚怀_x0000_Ⱥ怀_x0000_⌐̚怀_x0000_쎹䰕璜偻궹舡皞倳_xDBB9_Ѕ皞倳㐠̚怀_x0000__x0000__x0000__x0000__x0000_ᑀ̚怀_x0000__x0000__x0000__x0000__x0000_锠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ῠ̚怀_x0000__x0000__x0000__x0000__x0000__xDEA9_怏웮棳䓀Ⱥ怀_x0000_墀Ⱥ怀_x0000_鹿Ⱥ怀_x0000__x0000__x0000__x0000__x0000_㞰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_۰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㋀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䝀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㉰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙╈毯げ_x0000__x0000__x0000__x0000_ƀ̚怀_x0000_䙕倳㹀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉Ⱳ䏱桠_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_満̛怀_x0000_侀Ⱥ怀_x0000_￠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᖐ̚怀_x0000_ː̚怀_x0000_塙᭖仑帥_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶀̛怀_x0000_铀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_0怀_x0000_塙᭖僑堦⺀̚怀_x0000_⼐̚怀_x0000_☐̚怀_x0000_乀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䓀諗翿_x0000__x0000__x0000__x0000__x0000_Հ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᬰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㩴嗹屠_x0000__x0000__x0000__x0000_礰̚怀_x0000_⃐̚怀_x0000_⤐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䥠Ⱥ怀_x0000_圀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ⶠȺ怀_x0000__x0000__x0000__x0000__x0000_妀̛怀_x0000_ㄠ̚怀_x0000_䣀Ά怀_x0000_塙᭖仑堫芩樑웮棳_x0000__x0000__x0000__x0000_ɀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹❭䯹栓瞹䄖ჹ傓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉⵺以栢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_筰̚怀_x0000__x0000__x0000__x0000__x0000_塩ⅺ⛸栓_x0000__x0000__x0000__x0000_٠̚怀_x0000_珰̛怀_x0000_䦐̛怀_x0000_缰̚怀_x0000_怐̛怀_x0000_塹㩰忷栓䙀Ⱥ怀_x0000_࿀̚怀_x0000_䷠̛怀_x0000_泐̛怀_x0000_筀̚怀_x0000_嚠Ⱥ怀_x0000_ᅀ̚怀_x0000_ɠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⦠̚怀_x0000__x0000__x0000__x0000__x0000_Ḱ̚怀_x0000__x0000__x0000__x0000__x0000_烰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_0̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䉠Ƚ怀_x0000__x0000__x0000__x0000__x0000_ర̚怀_x0000__x0000__x0000__x0000__x0000_ꮩ쐐슓棳䳀Ά怀_x0000__x0000__x0000__x0000__x0000_춀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_‐̚怀_x0000_ᯰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_궹舡⟒傟ᄐ̚怀_x0000_䰀Ά怀_x0000_庐̛怀_x0000__x0000__x0000__x0000__x0000_゠Ⱥ怀_x0000_䭀Ά怀_x0000_ꢹ妙ᙚ傓_xDBB9_Ѕ⟒傟䊩屆웮棳☠Ⱥ怀_x0000_툠0怀_x0000_鮹梥萊倳捰̛怀_x0000_塉⵺以校ـȺ怀_x0000_婀̛怀_x0000_඀̚怀_x0000__x0000__x0000__x0000__x0000_Ő̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_杠̛怀_x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_什Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᇐ̚怀_x0000_∠ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_姠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_環̛怀_x0000_哀Ⱥ怀_x0000_焠̛怀_x0000_ㆀ̚怀_x0000__x0000__x0000__x0000__x0000_ऀ̚怀_x0000__x0000__x0000__x0000__x0000_ﶠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䚀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⋠ȧ怀_x0000_怏웮棳壠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_边桶㢌倫_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_កȺ怀_x0000_尠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⎀ȧ怀_x0000_ ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᦰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_岰̛怀_x0000_䷀Ά怀_x0000__x0000__x0000__x0000__x0000_䤰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妀g怀_x0000_䟠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_앐0怀_x0000_嬀̛怀_x0000_⍠ȧ怀_x0000_⒠ȧ怀_x0000_נּȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ゐ̚怀_x0000__x0000__x0000__x0000__x0000_塩ⅺ⛮栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䴀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_؀̚怀_x0000__x0000__x0000__x0000__x0000_傀Ά怀_x0000_぀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_♀ȧ怀_x0000__x0000__x0000__x0000__x0000_塉⵺以栧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_伀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_嵰̛怀_x0000_䪀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_纠̚怀_x0000_禐̚怀_x0000_ଠȺ怀_x0000_꾹舡皞倳塙╈毯♚塙᭖仑崤ன䲇棳⢰̚怀_x0000__x0000__x0000__x0000__x0000_伀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_迀΅怀_x0000__x0000__x0000__x0000__x0000_䖠Ⱥ怀_x0000_ダȺ怀_x0000_⋠̚怀_x0000_䫠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_咠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ॠȺ怀_x0000__x0000__x0000__x0000__x0000_兀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_僠Ⱥ怀_x0000_⟰̚怀_x0000__x0000__x0000__x0000__x0000_ࠐ̚怀_x0000_塩ⱶ⛲栓唀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_䣐̛怀_x0000__x0000__x0000__x0000__x0000_䏰̛怀_x0000__x0000__x0000__x0000__x0000_㑐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_←̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_啠Ⱥ怀_x0000_析̛怀_x0000__x0000__x0000__x0000__x0000_丐̛怀_x0000_─ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䤀̛怀_x0000_0怀_x0000_㌰̚怀_x0000__x0000__x0000__x0000__x0000_昐̛怀_x0000_湐̛怀_x0000_呰̛怀_x0000_塉㽣哿桿ㆠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_估̛怀_x0000_ⷀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䴠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_삠0怀_x0000_塉⑰䧹桾䅠Ⱥ怀_x0000_⒀ȧ怀_x0000_塙൓䟁`塉⑵哣栢═̚怀_x0000__x0000__x0000__x0000__x0000_┠ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㭳槢ᱦ_x0000__x0000__x0000__x0000_糰̚怀_x0000_䮀Ά怀_x0000__x0000__x0000__x0000__x0000_ꞩぁ웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䥀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㙠̚怀_x0000_圐̛怀_x0000_䤀Ά怀_x0000_᥀Ⱥ怀_x0000_䰰̛怀_x0000_䛀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_勰̛怀_x0000__x0000__x0000__x0000__x0000_➩⁅웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉ⵤ俦桲_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ߠ̚怀_x0000_塉⑵䧹桾켠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_冠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_塙᭖僑堥_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_̚怀_x0000_໐̚怀_x0000_︀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⚠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉⑵哣校_x0000__x0000__x0000__x0000_儀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⨀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙੔䏀ᱡ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_`̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_쮀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_₠̚怀_x0000_儐̛怀_x0000_궹梥萊倳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ॠ̚怀_x0000_쫠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⊀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_佀Ⱥ怀_x0000_㏰̚怀_x0000_◀ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_声̛怀_x0000_莩䀔ꖖ棰䌠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_⌠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_꾹舡⟒傟_x0000__x0000__x0000__x0000_➠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_帰̛怀_x0000_⇀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_牀̛怀_x0000_繀̚怀_x0000_兠Ⱥ怀_x0000_ᓐ̚怀_x0000_侀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᪠̚怀_x0000_豀΅怀_x0000_厀̛怀_x0000_裂Ⱥ怀_x0000_倠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_鳠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_塙⵳勺⵲_x0000__x0000__x0000__x0000_鑠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDB20_Ⱥ怀_x0000_塉⵺以栫_x0000__x0000__x0000__x0000_슀0怀_x0000_␀̚怀_x0000_ᠰ̚怀_x0000_塙᭖仑堦䩀Ά怀_x0000_㕰̚怀_x0000_澠̛怀_x0000__x0000__x0000__x0000__x0000_晀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_戀_x0000_ㆨㆩㆪㆫㆬㆭㆮㆯㆰㆱㆲㆳㆴㆵㆶㆷㆸㆹㆺㆻㆼㆽㆾㆿ㇀㇁㇂㇃㇄㇅㇆㇇㇈㇉㇊㇋㇌㇍㇎㇏㇐㇑㇒㇓㇔㇕㇖㇗㇘㇙㇚㇛㇜㇝㇞㇟㇠㇡㇢㇣㇤㇥㇦㇧㇨㇩㇪㇫㇬㇭㇮㇯ㇰㇱㇲㇳㇴㇵㇶㇷㇸㇹㇺㇻㇼㇽㇾㇿ㈀㈁㈂㈃㈄㈅㈆㈇㈈㈉㈊㈋㈌㈍㈎㈏㈐㈑㈒㈓㈔㈕㈖㈗㈘㈙㈚㈛㈜㈝㈞㈟㈠㈡㈢㈣㈤㈥㈦㈧㈨㈩㈪㈫㈬㈭㈮㈯㈰㈱㈲㈳㈴㈵㈶㈷㈸㈹㈺㈻㈼㈽㈾㈿㉀㉁㉂㉃㉄㉅㉆㉇㉈㉉㉊㉋㉌㉍㉎㉏㉐㉑㉒㉓㉔㉕㉖㉗㉘㉙㉚㉛㉜㉝㉞㉟㉠㉡㉢㉣㉤㉥㉦㉧㉨㉩㉪㉫㉬㉭㉮㉯㉰㉱㉲㉳㉴㉵㉶㉷㉸㉹㉺㉻㉼㉽㉾㉿㊀㊁㊂㊃㊄㊅㊆㊇㊈㊉㊊㊋㊌㊍㊎㊏㊐㊑㊒㊓㊔㊕㊖㊗㊘㊙㊚㊛㊜㊝㊞㊟㊠㊡㊢㊣㊤㊥㊦㊧Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDA40_먠翢_x0000__xDA50_먠翢_x0000__xDA50_먠翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_xDA50_먠翢_x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐ԛ䠗⚖栓␡淁硎䔰鎐諍翿_x0000__x0000__x0000__x0000__x0000_瘀_x0000_䖨䖩䖪䖫䖬䖭䖮䖯䖰䖱䖲䖳䖴䖵䖶䖷䖸䖹䖺䖻䖼䖽䖾䖿䗀䗁䗂䗃䗄䗅䗆䗇䗈䗉䗊䗋䗌䗍䗎䗏䗐䗑䗒䗓䗔䗕䗖䗗䗘䗙䗚䗛䗜䗝䗞䗟䗠䗡䗢䗣䗤䗥䗦䗧䗨䗩䗪䗫䗬䗭䗮䗯䗰䗱䗲䗳䗴䗵䗶䗷䗸䗹䗺䗻䗼䗽䗾䗿䘀䘁䘂䘃䘄䘅䘆䘇䘈䘉䘊䘋䘌䘍䘎䘏䘐䘑䘒䘓䘔䘕䘖䘗䘘䘙䘚䘛䘜䘝䘞䘟䘠䘡䘢䘣䘤䘥䘦䘧䘨䘩䘪䘫䘬䘭䘮䘯䘰䘱䘲䘳䘴䘵䘶䘷䘸䘹䘺䘻䘼䘽䘾䘿䙀䙁䙂䙃䙄䙅䙆䙇䙈䙉䙊䙋䙌䙍䙎䙏䙐䙑䙒䙓䙔䙕䙖䙗䙘䙙䙚䙛䙜䙝䙞䙟䙠䙡䙢䙣䙤䙥䙦䙧䙨䙩䙪䙫䙬䙭䙮䙯䙰䙱䙲䙳䙴䙵䙶䙷䙸䙹䙺䙻䙼䙽䙾䙿䚀䚁䚂䚃䚄䚅䚆䚇䚈䚉䚊䚋䚌䚍䚎䚏䚐䚑䚒䚓䚔䚕䚖䚗䚘䚙䚚䚛䚜䚝䚞䚟䚠䚡䚢䚣䚤䚥䚦䚧Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_먠翢_x0000_먠翢_x0000_먠翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐먠翢_x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_漀_x0000_㺨㺩㺪㺫㺬㺭㺮㺯㺰㺱㺲㺳㺴㺵㺶㺷㺸㺹㺺㺻㺼㺽㺾㺿㻀㻁㻂㻃㻄㻅㻆㻇㻈㻉㻊㻋㻌㻍㻎㻏㻐㻑㻒㻓㻔㻕㻖㻗㻘㻙㻚㻛㻜㻝㻞㻟㻠㻡㻢㻣㻤㻥㻦㻧㻨㻩㻪㻫㻬㻭㻮㻯㻰㻱㻲㻳㻴㻵㻶㻷㻸㻹㻺㻻㻼㻽㻾㻿㼀㼁㼂㼃㼄㼅㼆㼇㼈㼉㼊㼋㼌㼍㼎㼏㼐㼑㼒㼓㼔㼕㼖㼗㼘㼙㼚㼛㼜㼝㼞㼟㼠㼡㼢㼣㼤㼥㼦㼧㼨㼩㼪㼫㼬㼭㼮㼯㼰㼱㼲㼳㼴㼵㼶㼷㼸㼹㼺㼻㼼㼽㼾㼿㽀㽁㽂㽃㽄㽅㽆㽇㽈㽉㽊㽋㽌㽍㽎㽏㽐㽑㽒㽓㽔㽕㽖㽗㽘㽙㽚㽛㽜㽝㽞㽟㽠㽡㽢㽣㽤㽥㽦㽧㽨㽩㽪㽫㽬㽭㽮㽯㽰㽱㽲㽳㽴㽵㽶㽷㽸㽹㽺㽻㽼㽽㽾㽿㾀㾁㾂㾃㾄㾅㾆㾇㾈㾉㾊㾋㾌㾍㾎㾏㾐㾑㾒㾓㾔㾕㾖㾗㾘㾙㾚㾛㾜㾝㾞㾟㾠㾡㾢㾣㾤㾥㾦㾧Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_먠翢_x0000_먠翢_x0000_먠翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐먠翢_x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐鄀Þ怀_x0000_鄀Þ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_朾ㄼ翿_x0000_攽㆕῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_攃ㄸ翿_x0000_㉊ㆈ῿_x0000_촄瞈翿_x0000_ﴱ洲῿_x0000_춄瞈翿_x0000_洲῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㨉瞉翿_x0000_乎ㆈ῿_x0000_屉ㄼ翿_x0000_㥷ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蟑砇翿_x0000_㉼ㆈ῿_x0000_䮑短翿_x0000_㈴ㆈ῿_x0000_ᒑ研翿_x0000_婅㆕῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_藖砗翿_x0000_䖀ㆈ῿_x0000_ᙗ瞉翿_x0000_䵊ㆈ῿_x0000_䯗瞌翿_x0000_䶠ㆈ῿_x0000_孙ㄼ翿_x0000_孬㆕῿_x0000_坘㗣翿_x0000_㗋㓁῿_x0000_ᅗ瞉翿_x0000_䶛ㆈ῿_x0000_〗矬翿_x0000_䳍ㆈ῿_x0000_총瞈翿_x0000_ு㒪῿_x0000_涝ㄼ翿_x0000_⻠ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_敡ㄼ翿_x0000_忤㆕῿_x0000_ޢ瞒翿_x0000_䳹ㆈ῿_x0000_쭣瞓翿_x0000_㒬῿_x0000_弤ㄼ翿_x0000_⽮ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_泧ㄼ翿_x0000_ㆯㆈ῿_x0000_촨瞈翿_x0000_묋洲῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_末㗣翿_x0000_㒨῿_x0000__xD82C_瞣翿_x0000_믣ㅫ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_埮瞉翿_x0000_㒨῿_x0000_픯瞋翿_x0000_㒨῿_x0000_昰㗣翿_x0000_㒨῿_x0000_罰矻翿_x0000_㤙ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_浴ㄼ翿_x0000_ⶨㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蔼砗翿_x0000_ㅺ㆜῿_x0000_廼ㄼ翿_x0000_⹩ㆈ῿_x0000_派ㄼ翿_x0000_䳜ㆈ῿_x0000__x0001__x0000__x0000__x0000_먠翢_x0000__x0000__x0000__x0000__x0000_杠͝怀_x0000__x0000__x0000__x0000__x0000__x0014_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不佔空間外出攜帶又方便的功能椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-0008" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0008-丹露波浪伸縮椅-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0008-丹露波浪伸縮椅-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0008-丹露波浪伸縮椅-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0008" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0008" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -889,7 +1215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -928,6 +1254,13 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -946,10 +1279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -964,9 +1298,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1266,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,8 +1871,126 @@
         <v>59</v>
       </c>
     </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O7" r:id="rId1" xr:uid="{8383A490-15E3-704F-824D-42CAE53CDF25}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC07420-AAAB-DC4E-BE2C-E2DFBBC9662E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CC1A9-CC3D-534B-8E36-A11D679B25AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="1920" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14900" yWindow="2480" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>社區團購</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不限人數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,19 +330,6 @@
         <family val="2"/>
       </rPr>
       <t>以上</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>社區團購</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,10 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   2021/4/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$145</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,10 +903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;img src="GB-0006-豆酥朋泡芙-01.jpg" class="img-fluid style="width:600px"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.dosuper.com.tw/mall/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,31 +1085,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div id="carouselExampleIndicators-0007" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
-    &lt;ol class="carousel-indicators"&gt;
-          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
-          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
-          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
-          &lt;li data-target="#carouselExampleIndicators" data-slide-to="4"&gt;&lt;/li&gt;
-    &lt;/ol&gt;
-    &lt;div class="carousel-inner"&gt;
-         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-007-ASAHI玉米濃湯-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-     &lt;/div&gt;
-    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0007" role="button" data-slide="prev"&gt;
-         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
-         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
-     &lt;/a&gt;
-     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0007" role="button" data-slide="next"&gt;
-         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
-         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
-    &lt;/a&gt;
-&lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,12 +1122,6 @@
       </rPr>
       <t>波浪伸縮椅</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1張 $280, 2張 $500_x0010__x0000_₠_x0000_ƚ_x0000_脹_x0000__x0001__x000C__x0005_7_x0000__x0000__x0000__x0000__x0001__x0000_U_x0000__x000F_耀_x000F_不佔空間外出攜帶又方便的功能椅_x0001__x000C__x0005_7_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䁗_x0000__x0000_瀀䁽_x0000__x0000_　䁱_x0000__x0000_瀀䁾_x0000__x0000__x0000_䁲_x0000__x0000_退䁷_x0000__x0000_䁴_x0000__x0000_⠀䁳_x0000__x0000_䁷_x0000__x0000_耀䁭_x0000__x0000_　䁾_x0000__x0000_က䁨_x0000__x0000_㠀䂂_x0000__x0000_ꀀ䁢_x0000__x0000_ 䂆_x0000__x0000_ꀀ䁢_x0000__x0000_頀䂉_x0000__x0000_ꀀ䁢_x0000__x0000_䀀䂌_x0000__x0000_쀀䁦_x0000__x0000_䂎_x0000__x0000_䁪_x0000__x0000_ᨀ䂐_x0000__x0000_ࠀ䁱_x0000__x0000_쀀䂐_x0000__x0000_ꀀ䁴_x0000__x0000_쀀䂐_x0000__x0000_䁸_x0000__x0000_쀀䂐_x0000__x0000_　䁽_x0000__x0000_ 䂐_x0000__x0000_㐀䂀_x0000__x0000__x0000_䂏_x0000__x0000_퀀䂁_x0000__x0000_ 䂌_x0000__x0000_䂂_x0000__x0000_䠀䂊_x0000__x0000_ꀀ䂃_x0000__x0000_䂃_x0000__x0000_␀䂅_x0000__x0000_倀䁻_x0000__x0000_ꠀ䂆_x0000__x0000_䀀䁶_x0000__x0000__x0000_䂈_x0000__x0000_怀䁯_x0000__x0000_렀䂉_x0000__x0000_䁨_x0000__x0000_䐀䂌_x0000__x0000_耀䁢_x0000__x0000_퀀䂎_x0000__x0000_耀䁢_x0000__x0000_ﰀ䂐_x0000__x0000_耀䁢_x0000__x0000_렀䂒_x0000__x0000_怀䁪_x0000__x0000_㨀䂔_x0000__x0000_ 䁱_x0000__x0000_밀䂕_x0000__x0000_뀀䁸_x0000__x0000_萀䂖_x0000__x0000_ 䂀_x0000__x0000_䰀䂗_x0000__x0000_쀀䂄_x0000__x0000_䰀䂗_x0000__x0000__xD800_䂉_x0000__x0000_䰀䂗_x0000__x0000_밀䂍_x0000__x0000_稀䂖_x0000__x0000_퀀䂐_x0000__x0000_ꠀ䂕_x0000__x0000__xDC00_䂑_x0000__x0000_က䂔_x0000__x0000_䂒_x0000__x0000_砀䂒_x0000__x0000_ﰀ䂒_x0000__x0000_琀䂐_x0000__x0000_᐀䂐_x0000__x0000_㰀䂐_x0000__x0000_뀀䂏_x0000__x0000_栀䂒_x0000__x0000_ﰀ䂌_x0000__x0000_萀䂓_x0000__x0000_䠀䂊_x0000__x0000_ꀀ䂔_x0000__x0000__x0000_䂅_x0000__x0000_ꀀ䂔_x0000__x0000__x0000_䁿_x0000__x0000_ꀀ䂔_x0000__x0000_䁹_x0000__x0000_鸀䂓_x0000__x0000_䁴_x0000__x0000_鰀䂒_x0000__x0000_䁴_x0000__x0000_　䂑_x0000__x0000_䁴_x0000__x0000_䂏_x0000__x0000_耀䁸_x0000__x0000_倀䂎_x0000__x0000__x0000_䁼_x0000__x0000_렀䂌_x0000__x0000_搀䂅_x0000__x0000_ఀ䂋_x0000__x0000_저䂌_x0000__x0000_怀䂉_x0000__x0000_蠀䂏_x0000__x0000_ 䂈_x0000__x0000_쐀䂑_x0000__x0000_䠀䂆_x0000__x0000_렀䂒_x0000__x0000_琀䂃_x0000__x0000_가䂓_x0000__x0000_ꀀ䂀_x0000__x0000_가䂓_x0000__x0000_䁹_x0000__x0000_가䂓_x0000__x0000_退䁲_x0000__x0000_ꀀ䂒_x0000__x0000_　䁨_x0000__x0000_鐀䂑_x0000__x0000_耀䁖_x0000__x0000_㰀䂏_x0000__x0000_䀀䁀_x0000__x0000_倀䂋_x0000__x0000__x0000_쀹_x0000__x0000_栀䂆_x0000__x0000__x0000_쀹_x0000__x0000_　䂀_x0000__x0000__x0000_쀹_x0000__x0000_䁷_x0000__x0000_耀䁀_x0000__x0000_ 䁯_x0000__x0000_쀀䁖_x0000__x0000_退䁥_x0000__x0000_䁩_x0000__x0000__x0000_䁘_x0000__x0000_䀀䁴_x0000__x0000__x0000_䁗_x0000__x0000_瀀䁽_x0000__x0000__x0000_䁗_x0000__x0000_瀀䁽_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000_憈ॣ_x0001__x0000_所ॣ_x0001__x0000_ꕨॣ_x0001__x0000__x0000__x0000__x0000__x0000__x0000_㌌㰀_x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x0015__x0000__x0000__x0000__x0000_㍆㌌㰀㘐먡翢_x0000_ꡈখ_x0001__x0000_ꡈখ_x0001__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_檠쀉翢_x0000_ꡈখ_x0001__x0000_®怀_x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀⹈⹈⸔㛧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ā_x0000_-_x0000_-_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㟌먡翢_x0000_ꡈখ_x0001__x0000_.䀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000_㯘-_x0000_-_x0000_㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㙘প_x0001__x0000_ꡈখ_x0001__x0000__x0000_䀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000_@_x0000__x0000__x000F__x0000__x0000__x0000__x0000__x0000__x0000__x0000_犸ॣ_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌌㰀_x0003__x0000__x0000__x0000_ꡈখ_x0001__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000_ā㬁㯘㰀
-_x0000_蒀_x001E__x0000_ _x0000_ð_x0001__x0000__x0004__x0000_2_x0000_움-_x0000_Ɛ_x0000_ʀ_x0001__x0000__x0004__x0000__x0005__x0000_䧰_x0002_㰀_x0000_㰀_x0000__x0001__x0000__x0004__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000__x0003__x0000__xFFFF__xFFFF__x0000__x0000__x0000_渂䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_渨䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_湌䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_
-_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㰀_x0000__x0000__x0000__x0000_湳䇧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000_㪀	ᨀO_x0000__x0010__x0000__x0000__x0000_Ǡ_x0000__x0000_ஸ_x0000_΄_x0000_冀_x0001_冀_x0001__x0001__x0000__x0000__x0000__xFFFF__xFFFF__xFFFF__xFFFF_2_x0000_ৄ_x0000_΄_x0000__x0000__x0000_香_x0011__x0000__x0000_蚠_x0001_Ϩ_x0000__x001E__x0000_Ϩ_x0000_퀀_x0007__x0000__x0000_帰먪翢_x0000__x0000_㯘_x0000__x0000_帰먪翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㬀㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000_`_x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000_!_x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000_ꡈখ_x0001__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000_ꡈখ_x0001__x0000_㘘먡翢_x0000__x0000__x0000__x0000__x0000_X_x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x000D__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ø_x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000_	_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0018__x0000_㯘㰀_x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x0011__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0018__x0000_㯘㰀_x0000__x0000__x0000__x0000_ꡈখ_x0001__x0000__x0011__x0000__x0000__x0000_㌀㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌀㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㌀㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_捘ॣ_x0001__x0000__x0000__x0000__x0000__x0000_㸔먡翢_x0000_ꡈখ_x0001__x0000_Ă䀀_x0000__x0000_㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㯘㰀䁌먡翢_x0000_ꡈখ_x0001__x0000_Ђ䀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵_x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㤾㤾㤶㰀㍆㍆㌌㰀㍆㍆㌌㰀ゼゼや㤵㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀䡤먡翢_x0000_ꡈখ_x0001__x0000_Ђ䀀_x0000__x0000_㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㞒㝸㝌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀偼먡翢_x0000_ꡈখ_x0001__x0000_Ђ䀀_x0000__x0000_㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㯘㯘㯘㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀㍆㍆㌌㰀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_帰먪翢_x0000_㘐먡翢_x0000_ꡈখ_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_쀀䁔_x0000__x0000_䀀䂈_x0000__x0000_쀀䁔_x0000__x0000__x0000_쁙_x0000__x0000_䁢_x0000__x0000__x0000_쁙_x0000__x0000_䁢_x0000__x0000_　䂆_x0000__x0000_쀀䁰_x0000__x0000_　䂆_x0000__x0000__x0000_䁯_x0000__x0000_蠀䂃_x0000__x0000_ꀀ䁫_x0000__x0000_退䂀_x0000__x0000_ 䁧_x0000__x0000_退䁺_x0000__x0000_耀䁭_x0000__x0000_倀䁵_x0000__x0000_怀䁰_x0000__x0000_退䁰_x0000__x0000_怀䁰_x0000__x0000_ꀀ䁨_x0000__x0000_怀䁰_x0000__x0000_ 䁦_x0000__x0000_က䁰_x0000__x0000_䀀䁤_x0000__x0000_ 䁯_x0000__x0000_ 䁣_x0000__x0000_䁭_x0000__x0000_ 䁢_x0000__x0000_쀀䁫_x0000__x0000_耀䁡_x0000__x0000_쀀䁨_x0000__x0000_䀀䁡_x0000__x0000_耀䁧_x0000__x0000_䀀䁡_x0000__x0000_䁥_x0000__x0000_耀䁡_x0000__x0000__x0000_䁤_x0000__x0000_쀀䁡_x0000__x0000_䁦_x0000__x0000_쀀䁑_x0000__x0000__x0000_䁮_x0000__x0000__x0000_䁒_x0000__x0000_耀䁱_x0000__x0000__x0000_䁕_x0000__x0000_䁲_x0000__x0000_쀀䁚_x0000__x0000_䁳_x0000__x0000_䀀䁟_x0000__x0000_耀䁴_x0000__x0000_怀䁣_x0000__x0000_退䁴_x0000__x0000_ꀀ䁨_x0000__x0000_倀䁴_x0000__x0000_퀀䁰_x0000__x0000_뀀䁲_x0000__x0000_쀀䁵_x0000__x0000_ꀀ䁯_x0000__x0000_　䁻_x0000__x0000_쀀䁱_x0000__x0000_뀀䂀_x0000__x0000_瀀䁳_x0000__x0000_ꠀ䂃_x0000__x0000_䁴_x0000__x0000_蠀䂆_x0000__x0000_䁴_x0000__x0000_䀀䂈_x0000__x0000_쀀䁔_x0000__x0000_䀀䂈_x0000__x0000_쀀䁔_x0000__x0000_䀀䂈_x0000__x0000_蠀䂌_x0000__x0000_ꀀ䁹_x0000__x0000_倀䂃_x0000__x0000_ꀀ䁹_x0000__x0000_倀䂃_x0000__x0000_瀀䁰_x0000__x0000_䠀䂃_x0000__x0000_怀䁧_x0000__x0000_렀䂂_x0000__x0000_쀀䁞_x0000__x0000_頀䂁_x0000__x0000_䀀䁒_x0000__x0000_ࠀ䂃_x0000__x0000__x0000_䁀_x0000__x0000_栀䂄_x0000__x0000__x0000_䁗_x0000__x0000_᠀䂅_x0000__x0000_䀀䁥_x0000__x0000_ 䂅_x0000__x0000_ꀀ䁰_x0000__x0000_ 䂅_x0000__x0000_퀀䁰_x0000__x0000_砀䂆_x0000__x0000_瀀䁰_x0000__x0000_저䂇_x0000__x0000_쀀䁯_x0000__x0000_᠀䂉_x0000__x0000_怀䁮_x0000__x0000_뀀䂉_x0000__x0000__x0000_䁲_x0000__x0000_㠀䂈_x0000__x0000_쀀䁲_x0000__x0000_뀀䂆_x0000__x0000_倀䁳_x0000__x0000_ 䂅_x0000__x0000_뀀䁳_x0000__x0000_ 䂅_x0000__x0000_䀀䁶_x0000__x0000_렀䂊_x0000__x0000_䀀䁶_x0000__x0000_렀䂊_x0000__x0000_䁫_x0000__x0000_ 䂉_x0000__x0000_ 䁪_x0000__x0000_怀䂇_x0000__x0000_耀䁨_x0000__x0000_砀䂅_x0000__x0000_䀀䁧_x0000__x0000_䂅_x0000__x0000_쀀䁠_x0000__x0000_뀀䂇_x0000__x0000_ 䁢_x0000__x0000_䠀䂉_x0000__x0000_ꀀ䁣_x0000__x0000_렀䂊_x0000__x0000_䀀䁥_x0000__x0000_렀䂊_x0000__x0000__x0000_䁜_x0000__x0000_렀䂊_x0000__x0000__x0000_䁗_x0000__x0000_怀䂊_x0000__x0000_䀀䁔_x0000__x0000_렀䂉_x0000__x0000_䀀䁔_x0000__x0000_䂈_x0000__x0000_䀀䁔_x0000__x0000_　䂈_x0000__x0000_耀䁔_x0000__x0000_倀䂇_x0000__x0000_쀀䁔_x0000__x0000_퀀䂇_x0000__x0000__x0000_䀼_x0000__x0000_䠀䂊_x0000__x0000__x0000_䀼_x0000__x0000_저䂋_x0000__x0000__x0000_䀼_x0000__x0000_蠀䂌_x0000__x0000_耀䁈_x0000__x0000_蠀䂌_x0000__x0000_쀀䁖_x0000__x0000_蠀䂌_x0000__x0000_ꀀ䁹_x0000__x0000_蠀䂌_x0000__x0000_ꀀ䁹_x0000__x0000_렀䂃_x0000__x0000_　䂂_x0000__x0000_⠀䂇_x0000__x0000_　䂂_x0000__x0000_⠀䂇_x0000__x0000_က䂀_x0000__x0000_堀䂂_x0000__x0000_က䂀_x0000__x0000_堀䂂_x0000__x0000_䁼_x0000__x0000_砀䂍_x0000__x0000_䁼_x0000__x0000_砀䂍_x0000__x0000_က䂀_x0000__x0000_ 䂉_x0000__x0000_က䂀_x0000__x0000_ 䂉_x0000__x0000_　䂂_x0000__x0000_렀䂌_x0000__x0000_　䂂_x0000__x0000_렀䂌_x0000__x0000_쀀䂃_x0000__x0000_　䂅_x0000__x0000_쀀䂃_x0000__x0000_ꀀ䂅_x0000__x0000_倀䂄_x0000__x0000_က䂆_x0000__x0000_䂄_x0000__x0000_砀䂆_x0000__x0000_ꠀ䂅_x0000__x0000_ꀀ䂍_x0000__x0000_ꠀ䂅_x0000__x0000_ꀀ䂍_x0000__x0000_瀀䂇_x0000__x0000_堀䂇_x0000__x0000_瀀䂇_x0000__x0000_退䂇_x0000__x0000__x0000_䂈_x0000__x0000_저䂇_x0000__x0000_ꀀ䂈_x0000__x0000_䂇_x0000__x0000_䀀䂉_x0000__x0000_᠀䂆_x0000__x0000_ꀀ䂉_x0000__x0000_䂅_x0000__x0000_䂈_x0000__x0000_頀䂅_x0000__x0000_⠀䂈_x0000__x0000_䠀䂅_x0000__x0000_瀀䂇_x0000__x0000_怀䂁_x0000__x0000_瀀䂇_x0000__x0000_怀䂁_x0000__x0000_ꠀ䂅_x0000__x0000_䠀䂄_x0000__x0000_ꠀ䂅_x0000__x0000_瀀䂃_x0000__x0000_瀀䂄_x0000__x0000_怀䂂_x0000__x0000_怀䂃_x0000__x0000_ 䂁_x0000__x0000_瀀䂂_x0000__x0000_䠀䂂_x0000__x0000_ࠀ䂁_x0000__x0000_저䂂_x0000__x0000_栀䂁_x0000__x0000_䀀䂃_x0000__x0000_저䂁_x0000__x0000_렀䂃_x0000__x0000_　䂂_x0000__x0000_렀䂃_x0000__x0000_　䂂_x0000__x0000__x0000_䁵_x0000__x0000_뀀䂁_x0000__x0000__x0000_䁵_x0000__x0000_瀀䁿_x0000__x0000_退䁼_x0000__x0000_瀀䁿_x0000__x0000_䁺_x0000__x0000_䁻_x0000__x0000_䁸_x0000__x0000_倀䁸_x0000__x0000_耀䁶_x0000__x0000_ꀀ䁴_x0000__x0000_耀䁶_x0000__x0000_怀䁱_x0000__x0000_뀀䁽_x0000__x0000_怀䁱_x0000__x0000_퀀䁼_x0000__x0000_ 䁪_x0000__x0000_뀀䁻_x0000__x0000_耀䁢_x0000__x0000_倀䁺_x0000__x0000_耀䁗_x0000__x0000_䁷_x0000__x0000_쀀䁔_x0000__x0000_倀䁵_x0000__x0000_耀䁁_x0000__x0000_ꀀ䁲_x0000__x0000__x0000_쁉_x0000__x0000_쀀䁵_x0000__x0000__x0000_쁘_x0000__x0000_倀䁸_x0000__x0000__x0000_쀮_x0000__x0000_倀䁺_x0000__x0000__x0000_䀹_x0000__x0000_뀀䁻_x0000__x0000__x0000_䀹_x0000__x0000_က䁼_x0000__x0000__x0000_䀹_x0000__x0000_瀀䁼_x0000__x0000__x0000_䀶_x0000__x0000_퀀䁼_x0000__x0000__x0000_䀰_x0000__x0000_怀䁾_x0000__x0000__x0000_쀮_x0000__x0000_က䂀_x0000__x0000__x0000_쁃_x0000__x0000_ࠀ䂁_x0000__x0000_耀쁊_x0000__x0000_䂁_x0000__x0000_쀀쁐_x0000__x0000_᠀䂃_x0000__x0000_쀀쁒_x0000__x0000_뀀䂄_x0000__x0000_䀀쁓_x0000__x0000_ࠀ䂆_x0000__x0000_耀쁓_x0000__x0000_頀䂇_x0000__x0000_쀀쁓_x0000__x0000_堀䂉_x0000__x0000_쀀쁓_x0000__x0000_ꀀ䂍_x0000__x0000_쀀쁓_x0000__x0000_᠀䂎_x0000__x0000__x0000_쀪_x0000__x0000_ࠀ䂌_x0000__x0000__x0000_쀰_x0000__x0000_堀䂊_x0000__x0000__x0000_쀲_x0000__x0000_ࠀ䂉_x0000__x0000__x0000_쀲_x0000__x0000_栀䂇_x0000__x0000__x0000_쀲_x0000__x0000_䂅_x0000__x0000__x0000_쀱_x0000__x0000_렀䂄_x0000__x0000__x0000_쀱_x0000__x0000_栀䂃_x0000__x0000__x0000_쀰_x0000__x0000_堀䂂_x0000__x0000__x0000_쀤_x0000__x0000_頀䂁_x0000__x0000__x0000_䀀_x0000__x0000_퀀䂀_x0000__x0000__x0000_䀰_x0000__x0000_က䂀_x0000__x0000__x0000_䁃_x0000__x0000_쀀䁾_x0000__x0000_耀䁐_x0000__x0000__x0000_䁾_x0000__x0000_耀䁓_x0000__x0000_耀䁿_x0000__x0000_쀀䁠_x0000__x0000_堀䂀_x0000__x0000_耀䁩_x0000__x0000__xD800_䂀_x0000__x0000_ 䁲_x0000__x0000__xD800_䂀_x0000__x0000_က䁵_x0000__x0000_倀䁻_x0000__x0000_က䁵_x0000__x0000_耀䁽_x0000__x0000_뀀䁸_x0000__x0000_瀀䁿_x0000__x0000_倀䁼_x0000__x0000_蠀䂀_x0000__x0000__x0000_䂀_x0000__x0000_蠀䂀_x0000__x0000_뀀䂁_x0000__x0000__x0000_䁵_x0000__x0000_뀀䂁_x0000__x0000__x0000_䁵_x0000__x0000_뀀䂁_x0000__x0000_䁸_x0000__x0000_䂈_x0000__x0000__x0000_䁶_x0000__x0000_退䂇_x0000__x0000_瀀䁹_x0000__x0000_ࠀ䂆_x0000__x0000_　䁼_x0000__x0000_退䂄_x0000__x0000_　䁾_x0000__x0000_　䂃_x0000__x0000_耀䂀_x0000__x0000_ꀀ䂄_x0000__x0000_쀀䁾_x0000__x0000_က䂆_x0000__x0000_က䁼_x0000__x0000_耀䂇_x0000__x0000_䁸_x0000__x0000_䂈_x0000__x0000_䁸_x0000__x0000_䂈_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᭼諒翿_x0000__x0000__x0000__x0000__x0000_|_x0000__x0000__x0000_坙ⵥ俠ὶ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDE60_諗翿_x0000_巠諘翿_x0000_螹䱗青癥結̭怀_x0000_嵰̭怀_x0000_ꯠ̕怀_x0000_軠ə怀_x0000_ꥀǍ怀_x0000_䚐̭怀_x0000_呉㭮䏢桾一諒翿_x0000_㻐̋怀_x0000_螩䱗흒梺_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蘀諜翿_x0000_技̢怀_x0000__x0000__x0000__x0000__x0000__xDFB0_̠怀_x0000_綠諝翿_x0000_卹㡮ᳳ栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_擀諘翿_x0000_䕀̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_變論翿_x0000_ꯠə怀_x0000_⧀諓翿_x0000__x0000__x0000__x0000__x0000_ə怀_x0000_婀̭怀_x0000__x0000__x0000__x0000__x0000_⟀̢怀_x0000_狐̭怀_x0000_䡀̭怀_x0000_柰̭怀_x0000_ꔠ̓怀_x0000_籉搧ᚶ桮䈠論翿_x0000_긠諝翿_x0000_螩䱗青棑싀ɘ怀_x0000__x0000__x0000__x0000__x0000_⎹鐇咶䩂㌠諚翿_x0000_螩䱗Ꝓ桩ʹ沇枖䩂煐̢怀_x0000_䐠̭怀_x0000__x0000__x0000__x0000__x0000_̭怀_x0000__x0000__x0000__x0000__x0000_薹␗랙缒_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_呠諝翿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_潠諓翿_x0000_ﱀ諓翿_x0000_瀰̭怀_x0000_ꃠ諑翿_x0000_す㰹勿ൿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ퟠ諘翿_x0000_낀ə怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_螩䱗❒桠_x0000__x0000__x0000__x0000_㙙㰹勿ൿ䴠̢怀_x0000_螩䱗梺䥹੄廹栓㷠論翿_x0000__x0000__x0000__x0000__x0000_̣怀_x0000_♰̮怀_x0000_찠ə怀_x0000__x0000__x0000__x0000__x0000_Ⱐ諞翿_x0000_✹䠗⚖栓㘹䠗⚖栓娐̭怀_x0000_⣀諘翿_x0000_ᖠ諛翿_x0000_䥉Ṅ䏿桤満̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_﬐̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDE40_ə怀_x0000_呉╶䫦桶_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䲠諔翿_x0000__x0000__x0000__x0000__x0000_螩䱗梡_x0000__x0000__x0000__x0000_螩䱗㝒桬ə怀_x0000_瑐̛怀_x0000__x0000__x0000__x0000__x0000_螩䱗棒螩䱗蝒梽辠ə怀_x0000_䑹⵿䷵栓螩䱗青梱䍉⑲勳桶ֹ樗읔䍢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶰̝怀_x0000_呙╮䧴剿餀諓翿_x0000_檐̭怀_x0000_럠̣怀_x0000_勀̢怀_x0000_螩䱗蝒梹䥉╢䏴桡유̆怀_x0000_歐̭怀_x0000__x0000__x0000__x0000__x0000_兀̭怀_x0000_ꀐ̡怀_x0000__x0000__x0000__x0000__x0000_潠論翿_x0000_熀̭怀_x0000_쵐̑怀_x0000_螩䱗Ꝓ梡_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_撷欗梚_x0000__x0000__x0000__x0000_ᐠ論翿_x0000__x0000__x0000__x0000__x0000_銩䱔掲梚鵀̡怀_x0000__x0000__x0000__x0000__x0000_䥙ୄ䫹᩼䐠諗翿_x0000_塠諙翿_x0000_螩䱗흒棖_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_退먡翢_x0000_踠諕翿_x0000_䥉ไ䣹桧劐̝怀_x0000_휐̝怀_x0000_㫠̗怀_x0000__xDE80_諗翿_x0000_᷀諘翿_x0000_买̝怀_x0000__x0000__x0000__x0000__x0000_倠̭怀_x0000__x0000__x0000__x0000__x0000_螩䱗❒棔螹䱗읒癦䥙ॄ哤ᅲ_x0000__x0000__x0000__x0000_⍹㵹䫺栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_釀ə怀_x0000_揀諒翿_x0000__xDA60_諗翿_x0000_輠ɘ怀_x0000_螩䱗흒桢_x0000__x0000__x0000__x0000_声̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_馰̀怀_x0000__x0000__x0000__x0000__x0000_牀̭怀_x0000_顠諒翿_x0000_ꃠ諑翿_x0000_詐̓怀_x0000_䵐̢怀_x0000_螹䱗㝒癤_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_濐̭怀_x0000_諗翿_x0000__x0000__x0000__x0000__x0000_ᭀϘ怀_x0000__x0000__x0000__x0000__x0000_ə怀_x0000_伀̝怀_x0000__x0000__x0000__x0000__x0000_승䐷㐍爇_x0000__x0000__x0000__x0000_䥉Մ䣳桦_x0000__x0000__x0000__x0000_畀̭怀_x0000_壀̭怀_x0000_螩䱗桮_x0000__x0000__x0000__x0000_櫀̭怀_x0000_䌀̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䗐̢怀_x0000__xD9A0_諔翿_x0000_❠ˢ怀_x0000_螩䱗㝒桨죐̑怀_x0000_燠̭怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂑_x0000__x0000_䁽_x0000__x0000_䂑_x0000__x0000_耀䁶_x0000__x0000_娀䂑_x0000__x0000_렀䁰_x0000__x0000_퀀䂐_x0000__x0000_䁥_x0000__x0000_ꀀ䂏_x0000__x0000_쀀䁛_x0000__x0000_ꀀ䂍_x0000__x0000_耀䁇_x0000__x0000_쀀䂊_x0000__x0000__x0000_䀬_x0000__x0000_䂇_x0000__x0000__x0000_쀳_x0000__x0000_㠀䂄_x0000__x0000__x0000_쀳_x0000__x0000_䂀_x0000__x0000__x0000_쀳_x0000__x0000_䀀䁼_x0000__x0000__x0000_䀨_x0000__x0000_쀀䁶_x0000__x0000_耀䁅_x0000__x0000_퀀䁲_x0000__x0000_䁙_x0000__x0000_쀀䁭_x0000__x0000_耀䁤_x0000__x0000_耀䁩_x0000__x0000_䁯_x0000__x0000_䀀䁥_x0000__x0000_ꀀ䁵_x0000__x0000_䀀䁥_x0000__x0000_က䁽_x0000__x0000_䀀䁥_x0000__x0000_퀀䂓_x0000__x0000_䀀䁥_x0000__x0000_䂓_x0000__x0000_쀀䁥_x0000__x0000_ࠀ䂔_x0000__x0000_䀀䁦_x0000__x0000_ 䂔_x0000__x0000_耀䁧_x0000__x0000_⸀䂔_x0000__x0000_쀀䁨_x0000__x0000_㰀䂔_x0000__x0000_쀀䁪_x0000__x0000_䘀䂔_x0000__x0000_쀀䁬_x0000__x0000_倀䂔_x0000__x0000__x0000_䁰_x0000__x0000_倀䂔_x0000__x0000_耀䁱_x0000__x0000_倀䂔_x0000__x0000_退䁲_x0000__x0000_䘀䂔_x0000__x0000_ꀀ䁳_x0000__x0000_㰀䂔_x0000__x0000_㠀䁴_x0000__x0000_⸀䂔_x0000__x0000_퀀䁴_x0000__x0000_ 䂔_x0000__x0000_က䁵_x0000__x0000_ࠀ䂔_x0000__x0000_倀䁵_x0000__x0000_䂓_x0000__x0000_倀䁵_x0000__x0000_퀀䂓_x0000__x0000_倀䁵_x0000__x0000_怀䁾_x0000__x0000_倀䁵_x0000__x0000_쀀䁸_x0000__x0000_뀀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000_ÿ_x0000__xFFFF_ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_昀뤳翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⰰ먠翢_x0000__x0000__x0000__x0000__x0000_㠠ɱ怀_x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_昀뤳翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x000D__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF_ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_࿼À_x0000_㾀_x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䀀먢翢_x0000__x0000__x0000__x0000_ࠀ_x0000__x0000__x0000__x0000_┰ব_x0001__x0000_䅀ढ़_x0001__x0000_伀ů怀_x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⌀ȧ怀_x0000__x0000__x0000__x0000__x0000_䐀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ﴠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_≀ȧ怀_x0000_୰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ູ崥ᘕ倫׀Ⱥ怀_x0000_☠ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ೀ̚怀_x0000_䇠Ⱥ怀_x0000_塉⑵哣栧∠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妩岐웮棳䵀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Р̚怀_x0000_⹐̚怀_x0000_ᖩ찄䒏棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⪐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ྐ̚怀_x0000__x0000__x0000__x0000__x0000_亀Ά怀_x0000__x0000__x0000__x0000__x0000_ዀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⊀ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹Ⅳ䏺栓_x0000__x0000__x0000__x0000_芩㈑웮棳_x0000__x0000__x0000__x0000_㎠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_摠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妠Ⱥ怀_x0000_ἠ̚怀_x0000_塙⥺ᗮ孫_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⍀ȧ怀_x0000_技̛怀_x0000_ʩ∕웮棳ᑠȺ怀_x0000_铠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_銩䡔棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ɰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_搰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㡸係ൿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_素̚怀_x0000_䖀Ⱥ怀_x0000_妩屆웮棳㠐̚怀_x0000_䬀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_新̛怀_x0000_牰̛怀_x0000_縐̚怀_x0000_ư̚怀_x0000_ᒠ̚怀_x0000_塙ⅴ䗤ൿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_▀ȧ怀_x0000__x0000__x0000__x0000__x0000_ᜠȺ怀_x0000_ᖩ찄䛝棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_礀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_一Ά怀_x0000_琠̛怀_x0000_䢀Ά怀_x0000_豈Ⱥ怀_x0000_Ɒ̚怀_x0000_塩㭳⛢栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䯀Ά怀_x0000_ᶠ̚怀_x0000_䢠Ⱥ怀_x0000_䬠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_垠̛怀_x0000_ﻠȺ怀_x0000_〰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_簰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䰠Ƚ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⍀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᮩ氮웮棳_x0000__x0000__x0000__x0000_拠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ʹ摗遖偲⓰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ԑ̚怀_x0000_璀̛怀_x0000_灠̛怀_x0000__x0000__x0000__x0000__x0000_称̚怀_x0000_࣐̚怀_x0000_⾠̚怀_x0000_勀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_净Ά怀_x0000_偀Ⱥ怀_x0000_㗐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ʩ棳_x0000__x0000__x0000__x0000_嶩屆웮棳䃠Ⱥ怀_x0000_ঐ̚怀_x0000_☀ȧ怀_x0000__x0000__x0000__x0000__x0000_篐̚怀_x0000__x0000__x0000__x0000__x0000_캩灇웮棳挐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_油䄖ჹ傓ࢠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_匀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⊰̚怀_x0000_ᎀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_＀Ⱥ怀_x0000_㜠̚怀_x0000_䩐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_傰̛怀_x0000_⢀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᫐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䨀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䭀̛怀_x0000_糀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_唰̛怀_x0000_塹❵ᗮ栓Ḁ̚怀_x0000__x0000__x0000__x0000__x0000_⁀Ⱥ怀_x0000_ʩ焷쏖棳Ⱥ怀_x0000_Ⱥ怀_x0000_⎠ȧ怀_x0000_쥀Ⱥ怀_x0000_ኩ䐦玐棱_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ހ̚怀_x0000__x0000__x0000__x0000__x0000_Ҁ̚怀_x0000__x0000__x0000__x0000__x0000_쥠Ⱥ怀_x0000_א̚怀_x0000__x0000__x0000__x0000__x0000_塉㭳濢桽䒀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ௐ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹❵ዮ栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_캩聗棳궹舡㑌倇Ⱥ怀_x0000_螩岑깖棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ⱀ̚怀_x0000_綀̚怀_x0000_⏠ȧ怀_x0000_ᦀ̚怀_x0000__x0000__x0000__x0000__x0000_䅀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㌀̚怀_x0000__x0000__x0000__x0000__x0000_侩∖웮棳_x0000__x0000__x0000__x0000_ᲠȺ怀_x0000_삠Ⱥ怀_x0000_㋐̚怀_x0000__x0000__x0000__x0000__x0000_̚͠怀_x0000_䥠Ƚ怀_x0000_䦀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_玐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⋀ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ደ̚怀_x0000_偀Ά怀_x0000_ฐ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᩀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_嚀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹❵ხ栓⒐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ۀ̚怀_x0000_㓠̚怀_x0000__x0000__x0000__x0000__x0000_䞀Ⱥ怀_x0000_倀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_址Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_솠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᱐̚怀_x0000__x0000__x0000__x0000__x0000_爐̛怀_x0000_ⵠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙᭖仑堥容ґ皞倳_x0000__x0000__x0000__x0000_⎠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_煐̛怀_x0000_壀Ⱥ怀_x0000_⒀Ⱥ怀_x0000_⭐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_罠̚怀_x0000__x0000__x0000__x0000__x0000_結̛怀_x0000__x0000__x0000__x0000__x0000_侐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ჰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_稠̚怀_x0000_ᦩ梕웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_咀Ⱥ怀_x0000_塉❣䟚桱ᬀ̚怀_x0000_塉⑴䟳桡_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_漐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ሰ̚怀_x0000_䠀Ⱥ怀_x0000_䱀Ά怀_x0000_嗰̛怀_x0000_쀀Ⱥ怀_x0000_ហ̚怀_x0000_ﾠȺ怀_x0000_塹㭶仱栓㿠Ⱥ怀_x0000_䴠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_結̚怀_x0000__x0000__x0000__x0000__x0000_䲀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_馩桁웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶹䐦题傦_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⯠̚怀_x0000__x0000__x0000__x0000__x0000_ႀ̚怀_x0000_奀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_几Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㒰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_À̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᦩ嶿웮棳䮠̛怀_x0000_薩ఇ웮棳㛰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䞀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㵀Ⱥ怀_x0000_塙੔䧞ቡ塹ⱶዲ栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_垠Ⱥ怀_x0000_窰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_̚怀_x0000_冀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䈀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_皹䄖ჹ傓撩焖웮棳ⴀ̚怀_x0000_╠ȧ怀_x0000_䮀Ⱥ怀_x0000_隹Თᾝ倻⸠̚怀_x0000__x0000__x0000__x0000__x0000_塙ⅴ嗉ᩢ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDFA0_Ⱥ怀_x0000_猰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⌠ȧ怀_x0000_塉⥰䧴桡_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䲀Ά怀_x0000_塀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㘀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_✰̚怀_x0000__x0000__x0000__x0000__x0000_ဠ̚怀_x0000_̰̚怀_x0000_쯠0怀_x0000_ᡠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ຠȺ怀_x0000_콀Ⱥ怀_x0000_֠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_讹䢖⑶倢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_容ґ⟒傟_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_0怀_x0000_쁐0怀_x0000_ẹᱵ៟個_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妩槀웮棳䘠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_狐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙ⅺ哤᩼_x0000__x0000__x0000__x0000_⊠Ⱥ怀_x0000_塙ⅺᗸ孫_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䧀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ֹᰗ假_x0000__x0000__x0000__x0000_締̛怀_x0000_Ǡ̚怀_x0000_㘰̚怀_x0000__x0000__x0000__x0000__x0000_⊠ȧ怀_x0000__x0000__x0000__x0000__x0000_籠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_➐̚怀_x0000_쪠Ⱥ怀_x0000_塙᭖僑帥䨀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_र̚怀_x0000_ᕠ̚怀_x0000_塹ⱶỲ栓䋐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_婰̛怀_x0000_ﮰ0怀_x0000_ܠ̚怀_x0000_ᵀ̚怀_x0000_ᚰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_π̚怀_x0000_坠Ⱥ怀_x0000_Ẑ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ኩ䐦뎐棲_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_๰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_烀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙൓俻屽_x0000__x0000__x0000__x0000_屐̛怀_x0000_䳀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⏀ȧ怀_x0000_ྩ梕웮棳塙㩤槵ᱦ妩즶웮棳塙᭖僑堫ᗰ̚怀_x0000_￀Ⱥ怀_x0000_什Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_亠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶠Ⱥ怀_x0000_缀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙൓䟻屫ʹᙐ僷_x0000__x0000__x0000__x0000_ᐐ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_仠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_劐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_僀Ά怀_x0000_塙⵺以帢瀰̛怀_x0000_喹逦耖倓_x0000__x0000__x0000__x0000_䏀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_喠Ⱥ怀_x0000_繰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⓚȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_޹䡖〝傟鮹舡皞倳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⽀Ⱥ怀_x0000_塉⁠勿桶䛀Ά怀_x0000_䜀Ά怀_x0000_ᨐ̚怀_x0000_♰̚怀_x0000__x0000__x0000__x0000__x0000_䪀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_刀̛怀_x0000_占Ⱥ怀_x0000_塙൓嗉੦䠀Ά怀_x0000_ଐ̚怀_x0000_扐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ް̚怀_x0000_ℰ̚怀_x0000_乀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_䫀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䧀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_婢Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᮐ̚怀_x0000_흀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_墩엡왝棳淰̛怀_x0000_妩巀웮棳溰̛怀_x0000_塹⵻囤栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䪰̛怀_x0000_塩㩤⛵栓በ̚怀_x0000_猪Ⱥ怀_x0000_궹梥萼倳ﾀȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⑀ȧ怀_x0000_숰0怀_x0000_ῠȺ怀_x0000__x0000__x0000__x0000__x0000_䊩㷀웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_쀀0怀_x0000_⁀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⛐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_佀Ά怀_x0000_ʩ桇옖棳␠ȧ怀_x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㩳嗹൧⠠̚怀_x0000_調䙕倳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_秀̚怀_x0000_㔐̚怀_x0000__x0000__x0000__x0000__x0000_ຩ椥ʐ棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_孠̛怀_x0000__x0000__x0000__x0000__x0000_ৰ̚怀_x0000_Ề̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_堀̛怀_x0000_往̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_奐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᝀ̚怀_x0000_趀΅怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俀Ά怀_x0000_倀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_俀̛怀_x0000_㕀̚怀_x0000__x0000__x0000__x0000__x0000_䘰̛怀_x0000_Ⱥ怀_x0000_ᆠ̚怀_x0000_䲹ᱷ៟個_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉㩤濵桽塹㭶僱栓㈐̚怀_x0000_ၐ̚怀_x0000_℀̚怀_x0000_仐̛怀_x0000_挐̛怀_x0000_墹䄖ჹ傓塙♈俹ൠ_x0000__x0000__x0000__x0000_ᣀ̚怀_x0000_羐̚怀_x0000_提̛怀_x0000_⤠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_恰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䢠̛怀_x0000_塩⥺⛮栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙᭖僑崤_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䷠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_젠0怀_x0000__x0000__x0000__x0000__x0000_≠ȧ怀_x0000_␀ȧ怀_x0000_䄀Ⱥ怀_x0000_寀̛怀_x0000_╀ȧ怀_x0000__x0000__x0000__x0000__x0000_岀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_鮹舡⟒傟ર̚怀_x0000__x0000__x0000__x0000__x0000_ʩ奇萗棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잩䐿蛚棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_侩즶웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_涐̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䡀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ʩ薒棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㒀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_␀Ⱥ怀_x0000_Ӡ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙⥻䗸 _x0000__x0000__x0000__x0000_ꞩ桁웮棳䦠Ⱥ怀_x0000_⾀Ⱥ怀_x0000_័̚怀_x0000_乀̛怀_x0000_■ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_辩䠅Ҕ棲_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⱥ怀_x0000_傀̛怀_x0000_①ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_▀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⽰̚怀_x0000__x0000__x0000__x0000__x0000_ഠ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_箠̚怀_x0000_ᦩ⁅웮棳⫰̚怀_x0000_妩嶰웮棳穐̚怀_x0000_⺰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ꮀ̚怀_x0000_塙⵺以娠_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䟀Ά怀_x0000_䛀Ⱥ怀_x0000_⮀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_੐̚怀_x0000__x0000__x0000__x0000__x0000__xDDB0_0怀_x0000_ⓠȧ怀_x0000_0怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_༰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_樀̛怀_x0000_흰0怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_◠ȧ怀_x0000_ᤠ̚怀_x0000__x0000__x0000__x0000__x0000_簀̚怀_x0000_ꊹ䲇☒倊Ġ̚怀_x0000_캩聗薒棳塙⥻䗸Ḡ喐̛怀_x0000_ᾀ̚怀_x0000_Ⱥ怀_x0000_⌐̚怀_x0000_쎹䰕璜偻궹舡皞倳_xDBB9_Ѕ皞倳㐠̚怀_x0000__x0000__x0000__x0000__x0000_ᑀ̚怀_x0000__x0000__x0000__x0000__x0000_锠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ῠ̚怀_x0000__x0000__x0000__x0000__x0000__xDEA9_怏웮棳䓀Ⱥ怀_x0000_墀Ⱥ怀_x0000_鹿Ⱥ怀_x0000__x0000__x0000__x0000__x0000_㞰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_۰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㋀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䝀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㉰̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙╈毯げ_x0000__x0000__x0000__x0000_ƀ̚怀_x0000_䙕倳㹀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉Ⱳ䏱桠_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_満̛怀_x0000_侀Ⱥ怀_x0000_￠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᖐ̚怀_x0000_ː̚怀_x0000_塙᭖仑帥_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䶀̛怀_x0000_铀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_0怀_x0000_塙᭖僑堦⺀̚怀_x0000_⼐̚怀_x0000_☐̚怀_x0000_乀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䓀諗翿_x0000__x0000__x0000__x0000__x0000_Հ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᬰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㩴嗹屠_x0000__x0000__x0000__x0000_礰̚怀_x0000_⃐̚怀_x0000_⤐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䥠Ⱥ怀_x0000_圀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ⶠȺ怀_x0000__x0000__x0000__x0000__x0000_妀̛怀_x0000_ㄠ̚怀_x0000_䣀Ά怀_x0000_塙᭖仑堫芩樑웮棳_x0000__x0000__x0000__x0000_ɀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塹❭䯹栓瞹䄖ჹ傓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉⵺以栢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_筰̚怀_x0000__x0000__x0000__x0000__x0000_塩ⅺ⛸栓_x0000__x0000__x0000__x0000_٠̚怀_x0000_珰̛怀_x0000_䦐̛怀_x0000_缰̚怀_x0000_怐̛怀_x0000_塹㩰忷栓䙀Ⱥ怀_x0000_࿀̚怀_x0000_䷠̛怀_x0000_泐̛怀_x0000_筀̚怀_x0000_嚠Ⱥ怀_x0000_ᅀ̚怀_x0000_ɠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⦠̚怀_x0000__x0000__x0000__x0000__x0000_Ḱ̚怀_x0000__x0000__x0000__x0000__x0000_烰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_0̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䉠Ƚ怀_x0000__x0000__x0000__x0000__x0000_ర̚怀_x0000__x0000__x0000__x0000__x0000_ꮩ쐐슓棳䳀Ά怀_x0000__x0000__x0000__x0000__x0000_춀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_‐̚怀_x0000_ᯰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_궹舡⟒傟ᄐ̚怀_x0000_䰀Ά怀_x0000_庐̛怀_x0000__x0000__x0000__x0000__x0000_゠Ⱥ怀_x0000_䭀Ά怀_x0000_ꢹ妙ᙚ傓_xDBB9_Ѕ⟒傟䊩屆웮棳☠Ⱥ怀_x0000_툠0怀_x0000_鮹梥萊倳捰̛怀_x0000_塉⵺以校ـȺ怀_x0000_婀̛怀_x0000_඀̚怀_x0000__x0000__x0000__x0000__x0000_Ő̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_杠̛怀_x0000_Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_什Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᇐ̚怀_x0000_∠ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_姠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_環̛怀_x0000_哀Ⱥ怀_x0000_焠̛怀_x0000_ㆀ̚怀_x0000__x0000__x0000__x0000__x0000_ऀ̚怀_x0000__x0000__x0000__x0000__x0000_ﶠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䚀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⋠ȧ怀_x0000_怏웮棳壠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_边桶㢌倫_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_កȺ怀_x0000_尠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⎀ȧ怀_x0000_ ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ᦰ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_岰̛怀_x0000_䷀Ά怀_x0000__x0000__x0000__x0000__x0000_䤰̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_妀g怀_x0000_䟠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_앐0怀_x0000_嬀̛怀_x0000_⍠ȧ怀_x0000_⒠ȧ怀_x0000_נּȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ゐ̚怀_x0000__x0000__x0000__x0000__x0000_塩ⅺ⛮栓_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䴀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_؀̚怀_x0000__x0000__x0000__x0000__x0000_傀Ά怀_x0000_぀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_♀ȧ怀_x0000__x0000__x0000__x0000__x0000_塉⵺以栧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_伀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_嵰̛怀_x0000_䪀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_纠̚怀_x0000_禐̚怀_x0000_ଠȺ怀_x0000_꾹舡皞倳塙╈毯♚塙᭖仑崤ன䲇棳⢰̚怀_x0000__x0000__x0000__x0000__x0000_伀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_迀΅怀_x0000__x0000__x0000__x0000__x0000_䖠Ⱥ怀_x0000_ダȺ怀_x0000_⋠̚怀_x0000_䫠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_咠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ॠȺ怀_x0000__x0000__x0000__x0000__x0000_兀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_僠Ⱥ怀_x0000_⟰̚怀_x0000__x0000__x0000__x0000__x0000_ࠐ̚怀_x0000_塩ⱶ⛲栓唀Ⱥ怀_x0000__x0000__x0000__x0000__x0000_䣐̛怀_x0000__x0000__x0000__x0000__x0000_䏰̛怀_x0000__x0000__x0000__x0000__x0000_㑐̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_←̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_啠Ⱥ怀_x0000_析̛怀_x0000__x0000__x0000__x0000__x0000_丐̛怀_x0000_─ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䤀̛怀_x0000_0怀_x0000_㌰̚怀_x0000__x0000__x0000__x0000__x0000_昐̛怀_x0000_湐̛怀_x0000_呰̛怀_x0000_塉㽣哿桿ㆠȺ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_估̛怀_x0000_ⷀ̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䴠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_삠0怀_x0000_塉⑰䧹桾䅠Ⱥ怀_x0000_⒀ȧ怀_x0000_塙൓䟁`塉⑵哣栢═̚怀_x0000__x0000__x0000__x0000__x0000_┠ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙㭳槢ᱦ_x0000__x0000__x0000__x0000_糰̚怀_x0000_䮀Ά怀_x0000__x0000__x0000__x0000__x0000_ꞩぁ웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䥀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㙠̚怀_x0000_圐̛怀_x0000_䤀Ά怀_x0000_᥀Ⱥ怀_x0000_䰰̛怀_x0000_䛀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_勰̛怀_x0000__x0000__x0000__x0000__x0000_➩⁅웮棳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉ⵤ俦桲_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ߠ̚怀_x0000_塉⑵䧹桾켠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_冠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_塙᭖僑堥_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_̚怀_x0000_໐̚怀_x0000_︀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⚠̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塉⑵哣校_x0000__x0000__x0000__x0000_儀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⨀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_塙੔䏀ᱡ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_`̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_쮀Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_₠̚怀_x0000_儐̛怀_x0000_궹梥萊倳_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ॠ̚怀_x0000_쫠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_⊀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_佀Ⱥ怀_x0000_㏰̚怀_x0000_◀ȧ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_声̛怀_x0000_莩䀔ꖖ棰䌠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_⌠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_꾹舡⟒傟_x0000__x0000__x0000__x0000_➠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_帰̛怀_x0000_⇀̚怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_牀̛怀_x0000_繀̚怀_x0000_兠Ⱥ怀_x0000_ᓐ̚怀_x0000_侀Ά怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᪠̚怀_x0000_豀΅怀_x0000_厀̛怀_x0000_裂Ⱥ怀_x0000_倠̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_鳠Ⱥ怀_x0000__x0000__x0000__x0000__x0000_塙⵳勺⵲_x0000__x0000__x0000__x0000_鑠Ⱥ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDB20_Ⱥ怀_x0000_塉⵺以栫_x0000__x0000__x0000__x0000_슀0怀_x0000_␀̚怀_x0000_ᠰ̚怀_x0000_塙᭖仑堦䩀Ά怀_x0000_㕰̚怀_x0000_澠̛怀_x0000__x0000__x0000__x0000__x0000_晀̛怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_戀_x0000_ㆨㆩㆪㆫㆬㆭㆮㆯㆰㆱㆲㆳㆴㆵㆶㆷㆸㆹㆺㆻㆼㆽㆾㆿ㇀㇁㇂㇃㇄㇅㇆㇇㇈㇉㇊㇋㇌㇍㇎㇏㇐㇑㇒㇓㇔㇕㇖㇗㇘㇙㇚㇛㇜㇝㇞㇟㇠㇡㇢㇣㇤㇥㇦㇧㇨㇩㇪㇫㇬㇭㇮㇯ㇰㇱㇲㇳㇴㇵㇶㇷㇸㇹㇺㇻㇼㇽㇾㇿ㈀㈁㈂㈃㈄㈅㈆㈇㈈㈉㈊㈋㈌㈍㈎㈏㈐㈑㈒㈓㈔㈕㈖㈗㈘㈙㈚㈛㈜㈝㈞㈟㈠㈡㈢㈣㈤㈥㈦㈧㈨㈩㈪㈫㈬㈭㈮㈯㈰㈱㈲㈳㈴㈵㈶㈷㈸㈹㈺㈻㈼㈽㈾㈿㉀㉁㉂㉃㉄㉅㉆㉇㉈㉉㉊㉋㉌㉍㉎㉏㉐㉑㉒㉓㉔㉕㉖㉗㉘㉙㉚㉛㉜㉝㉞㉟㉠㉡㉢㉣㉤㉥㉦㉧㉨㉩㉪㉫㉬㉭㉮㉯㉰㉱㉲㉳㉴㉵㉶㉷㉸㉹㉺㉻㉼㉽㉾㉿㊀㊁㊂㊃㊄㊅㊆㊇㊈㊉㊊㊋㊌㊍㊎㊏㊐㊑㊒㊓㊔㊕㊖㊗㊘㊙㊚㊛㊜㊝㊞㊟㊠㊡㊢㊣㊤㊥㊦㊧Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xDA40_먠翢_x0000__xDA50_먠翢_x0000__xDA50_먠翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_xDA50_먠翢_x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐ԛ䠗⚖栓␡淁硎䔰鎐諍翿_x0000__x0000__x0000__x0000__x0000_瘀_x0000_䖨䖩䖪䖫䖬䖭䖮䖯䖰䖱䖲䖳䖴䖵䖶䖷䖸䖹䖺䖻䖼䖽䖾䖿䗀䗁䗂䗃䗄䗅䗆䗇䗈䗉䗊䗋䗌䗍䗎䗏䗐䗑䗒䗓䗔䗕䗖䗗䗘䗙䗚䗛䗜䗝䗞䗟䗠䗡䗢䗣䗤䗥䗦䗧䗨䗩䗪䗫䗬䗭䗮䗯䗰䗱䗲䗳䗴䗵䗶䗷䗸䗹䗺䗻䗼䗽䗾䗿䘀䘁䘂䘃䘄䘅䘆䘇䘈䘉䘊䘋䘌䘍䘎䘏䘐䘑䘒䘓䘔䘕䘖䘗䘘䘙䘚䘛䘜䘝䘞䘟䘠䘡䘢䘣䘤䘥䘦䘧䘨䘩䘪䘫䘬䘭䘮䘯䘰䘱䘲䘳䘴䘵䘶䘷䘸䘹䘺䘻䘼䘽䘾䘿䙀䙁䙂䙃䙄䙅䙆䙇䙈䙉䙊䙋䙌䙍䙎䙏䙐䙑䙒䙓䙔䙕䙖䙗䙘䙙䙚䙛䙜䙝䙞䙟䙠䙡䙢䙣䙤䙥䙦䙧䙨䙩䙪䙫䙬䙭䙮䙯䙰䙱䙲䙳䙴䙵䙶䙷䙸䙹䙺䙻䙼䙽䙾䙿䚀䚁䚂䚃䚄䚅䚆䚇䚈䚉䚊䚋䚌䚍䚎䚏䚐䚑䚒䚓䚔䚕䚖䚗䚘䚙䚚䚛䚜䚝䚞䚟䚠䚡䚢䚣䚤䚥䚦䚧Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_먠翢_x0000_먠翢_x0000_먠翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐먠翢_x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_漀_x0000_㺨㺩㺪㺫㺬㺭㺮㺯㺰㺱㺲㺳㺴㺵㺶㺷㺸㺹㺺㺻㺼㺽㺾㺿㻀㻁㻂㻃㻄㻅㻆㻇㻈㻉㻊㻋㻌㻍㻎㻏㻐㻑㻒㻓㻔㻕㻖㻗㻘㻙㻚㻛㻜㻝㻞㻟㻠㻡㻢㻣㻤㻥㻦㻧㻨㻩㻪㻫㻬㻭㻮㻯㻰㻱㻲㻳㻴㻵㻶㻷㻸㻹㻺㻻㻼㻽㻾㻿㼀㼁㼂㼃㼄㼅㼆㼇㼈㼉㼊㼋㼌㼍㼎㼏㼐㼑㼒㼓㼔㼕㼖㼗㼘㼙㼚㼛㼜㼝㼞㼟㼠㼡㼢㼣㼤㼥㼦㼧㼨㼩㼪㼫㼬㼭㼮㼯㼰㼱㼲㼳㼴㼵㼶㼷㼸㼹㼺㼻㼼㼽㼾㼿㽀㽁㽂㽃㽄㽅㽆㽇㽈㽉㽊㽋㽌㽍㽎㽏㽐㽑㽒㽓㽔㽕㽖㽗㽘㽙㽚㽛㽜㽝㽞㽟㽠㽡㽢㽣㽤㽥㽦㽧㽨㽩㽪㽫㽬㽭㽮㽯㽰㽱㽲㽳㽴㽵㽶㽷㽸㽹㽺㽻㽼㽽㽾㽿㾀㾁㾂㾃㾄㾅㾆㾇㾈㾉㾊㾋㾌㾍㾎㾏㾐㾑㾒㾓㾔㾕㾖㾗㾘㾙㾚㾛㾜㾝㾞㾟㾠㾡㾢㾣㾤㾥㾦㾧Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000_Ѐ_x0000__x0000_䂐_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_먠翢_x0000_먠翢_x0000_먠翢_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐먠翢_x0000__x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐_x0000__x0000__x0000_䂐鄀Þ怀_x0000_鄀Þ怀_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_朾ㄼ翿_x0000_攽㆕῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_攃ㄸ翿_x0000_㉊ㆈ῿_x0000_촄瞈翿_x0000_ﴱ洲῿_x0000_춄瞈翿_x0000_洲῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㨉瞉翿_x0000_乎ㆈ῿_x0000_屉ㄼ翿_x0000_㥷ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蟑砇翿_x0000_㉼ㆈ῿_x0000_䮑短翿_x0000_㈴ㆈ῿_x0000_ᒑ研翿_x0000_婅㆕῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_藖砗翿_x0000_䖀ㆈ῿_x0000_ᙗ瞉翿_x0000_䵊ㆈ῿_x0000_䯗瞌翿_x0000_䶠ㆈ῿_x0000_孙ㄼ翿_x0000_孬㆕῿_x0000_坘㗣翿_x0000_㗋㓁῿_x0000_ᅗ瞉翿_x0000_䶛ㆈ῿_x0000_〗矬翿_x0000_䳍ㆈ῿_x0000_총瞈翿_x0000_ு㒪῿_x0000_涝ㄼ翿_x0000_⻠ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_敡ㄼ翿_x0000_忤㆕῿_x0000_ޢ瞒翿_x0000_䳹ㆈ῿_x0000_쭣瞓翿_x0000_㒬῿_x0000_弤ㄼ翿_x0000_⽮ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_泧ㄼ翿_x0000_ㆯㆈ῿_x0000_촨瞈翿_x0000_묋洲῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_末㗣翿_x0000_㒨῿_x0000__xD82C_瞣翿_x0000_믣ㅫ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_埮瞉翿_x0000_㒨῿_x0000_픯瞋翿_x0000_㒨῿_x0000_昰㗣翿_x0000_㒨῿_x0000_罰矻翿_x0000_㤙ㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_浴ㄼ翿_x0000_ⶨㆈ῿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蔼砗翿_x0000_ㅺ㆜῿_x0000_廼ㄼ翿_x0000_⹩ㆈ῿_x0000_派ㄼ翿_x0000_䳜ㆈ῿_x0000__x0001__x0000__x0000__x0000_먠翢_x0000__x0000__x0000__x0000__x0000_杠͝怀_x0000__x0000__x0000__x0000__x0000__x0014_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1207,14 +1151,163 @@
 &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1張 $280, 2張 $500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;img src="fig/fig-GroupBuying/GB-0006-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>豆酥朋泡芙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-01.jpg" class="img-fluid style="width:600px"&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div id="carouselExampleIndicators-0007" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="4"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0007-ASAHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>玉米濃湯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0007-ASAHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>玉米濃湯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0007-ASAHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>玉米濃湯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0007-ASAHI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>玉米濃湯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0007" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0007" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/11/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/03/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2021/04/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1283,31 +1376,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1614,37 +1697,37 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD9"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="116" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="116" style="1" customWidth="1"/>
     <col min="15" max="15" width="28.33203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="37.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1653,19 +1736,19 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1674,13 +1757,13 @@
       <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1688,11 +1771,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="388" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
+      <c r="B2" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1700,40 +1783,40 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="3">
-        <v>44186</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="356" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1741,34 +1824,34 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3">
-        <v>44164</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>46</v>
+      <c r="L3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -1776,13 +1859,13 @@
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1791,199 +1874,198 @@
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3">
-        <v>43921</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>47</v>
+      <c r="L4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="356" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>53</v>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>48</v>
+      <c r="L5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="388" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="12" t="s">
+      <c r="N9" s="4" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" ht="388" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CC1A9-CC3D-534B-8E36-A11D679B25AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC6FF9-7E1E-1D42-B61C-88050620F9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="2480" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24440" yWindow="4260" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,10 +1125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不佔空間外出攜帶又方便的功能椅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div id="carouselExampleIndicators-0008" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
     &lt;ol class="carousel-indicators"&gt;
           &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
@@ -1301,6 +1297,57 @@
   </si>
   <si>
     <t xml:space="preserve">   2021/04/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">不佔空間外出攜帶又方便的功能椅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;br&gt; &lt;a href="https://www.youtube.com/watch?v=5HBziYM_qus"&gt;Youtube - 最方便攜帶的折疊椅&lt;/a&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕順軒 奶凍捲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yiting C.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="fig/fig-GroupBuying/GB-0009-奕順軒奶凍捲-01.jpg" class="img-fluid style="width:600px"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pon.com.tw/main.php?sub=product&amp;moj=index&amp;cmd=classList&amp;sn=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1379133618841587/posts/3444400752314853/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yuanflavor.com/products/shrimppatties-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1391,6 +1438,10 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1694,13 +1745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1802,7 +1853,7 @@
         <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>47</v>
@@ -1837,10 +1888,10 @@
         <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>44</v>
@@ -1875,7 +1926,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>45</v>
@@ -1916,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>46</v>
@@ -1956,6 +2007,9 @@
       <c r="N6" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="O6" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1992,7 +2046,7 @@
         <v>67</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>68</v>
@@ -2033,7 +2087,7 @@
         <v>67</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
@@ -2053,10 +2107,10 @@
         <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>22</v>
@@ -2065,13 +2119,48 @@
         <v>67</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O7" r:id="rId1" xr:uid="{8383A490-15E3-704F-824D-42CAE53CDF25}"/>
+    <hyperlink ref="O10" r:id="rId2" xr:uid="{7457AA87-6EFF-CD42-9516-E54D995C1658}"/>
+    <hyperlink ref="O9" r:id="rId3" xr:uid="{5DF76DED-137C-A347-B782-DA8AFD5C1CC4}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{7C1835E8-D40C-AF47-886F-371209A256D7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC6FF9-7E1E-1D42-B61C-88050620F9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D861303B-8D6A-DE43-BD6C-41881A74CC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24440" yWindow="4260" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="4240" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -865,10 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金典回味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>豆酥朋 泡芙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1348,6 +1344,10 @@
   </si>
   <si>
     <t>https://www.yuanflavor.com/products/shrimppatties-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經典回味</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1423,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1442,6 +1442,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1748,10 +1749,10 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1826,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1853,7 +1854,7 @@
         <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>47</v>
@@ -1867,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1888,10 +1889,10 @@
         <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>44</v>
@@ -1902,7 +1903,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -1926,7 +1927,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>45</v>
@@ -1940,7 +1941,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -1967,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>46</v>
@@ -1978,7 +1979,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -2008,150 +2009,150 @@
         <v>56</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
+      <c r="B7" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D861303B-8D6A-DE43-BD6C-41881A74CC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B23C5-95E7-F846-8B87-FF2F2B0FD3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="4240" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6580" yWindow="3240" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1348,6 +1348,120 @@
   </si>
   <si>
     <t>經典回味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外賣料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林聰榮砂鍋菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1包 $180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1包 1,300克 約2-3人份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源自於嘉義享名飄香一甲子的美味，「林聰榮砂鍋菜」！
+&lt;br&gt;
+起源於50年前～
+林進卿愛釣魚而延伸出的料理，傳承給林聰榮、林聰明2兄弟。
+身為大哥的林聰榮，堅持自己心目中對美味的不屈，創造出少油且較不甜的獨特創新口味，是許多在地人口中的隱藏版美食，您一定要試試看。
+&lt;br&gt;&lt;br&gt;
+砂鍋菜湯底一包約1300g
+內含大白菜、豆腐、木耳等。可自行添加菜料、火鍋料、豆皮等～在家輕鬆端出飄香50年的美味
+一包湯頭非常濃約2－3人份需要加水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div id="carouselExampleIndicators-0010" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0010-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林聰榮砂鍋菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0010-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林聰榮砂鍋菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0010-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林聰榮砂鍋菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0010" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0010" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,13 +1860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:B10"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2155,6 +2269,38 @@
         <v>92</v>
       </c>
     </row>
+    <row r="11" spans="1:15" ht="388" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B23C5-95E7-F846-8B87-FF2F2B0FD3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C5E75-BA8B-D440-BF1C-73767C6F6B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="3240" windowWidth="50160" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="4840" windowWidth="29600" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -865,10 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豆酥朋 泡芙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三盒以上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,22 +904,6 @@
   </si>
   <si>
     <t>正在熱賣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ASAHI 濃郁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>玉米濃湯飲料</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1086,38 +1066,6 @@
   </si>
   <si>
     <t>日常用品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>丹露</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>波浪伸縮椅</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1323,10 +1271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奕順軒 奶凍捲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yiting C.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1462,6 +1406,34 @@
     &lt;/a&gt;
 &lt;/div&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆酥朋-泡芙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ASAHI-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>濃郁玉米濃湯飲料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹露-波浪伸縮椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕順軒-奶凍捲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1551,12 +1523,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1863,10 +1835,10 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1941,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1968,7 +1940,7 @@
         <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>47</v>
@@ -1982,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2003,10 +1975,10 @@
         <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>44</v>
@@ -2017,7 +1989,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -2041,7 +2013,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>45</v>
@@ -2055,7 +2027,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -2082,7 +2054,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>46</v>
@@ -2093,7 +2065,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -2123,182 +2095,182 @@
         <v>56</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>95</v>
+      <c r="B7" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>95</v>
+        <v>73</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>89</v>
+      <c r="D10" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C5E75-BA8B-D440-BF1C-73767C6F6B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2534EB05-F679-994B-B7D4-3F8C34B62FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="4840" windowWidth="29600" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15740" yWindow="4820" windowWidth="29600" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1434,6 +1434,10 @@
   </si>
   <si>
     <t>奕順軒-奶凍捲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/08/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1838,7 +1842,7 @@
       <pane xSplit="15" ySplit="1" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2143,8 +2147,8 @@
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>91</v>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
@@ -2171,7 +2175,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>78</v>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2534EB05-F679-994B-B7D4-3F8C34B62FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612C86AF-8F0A-5C40-8D71-01D62406F198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15740" yWindow="4820" windowWidth="29600" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="37140" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,6 +1438,50 @@
   </si>
   <si>
     <t>2021/08/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1836,13 +1880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1861,11 +1905,11 @@
     <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="116" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="89.6640625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="37.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,8 +1955,11 @@
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="388" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1952,8 +1999,11 @@
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P2" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="356" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="356" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1987,8 +2037,11 @@
       <c r="N3" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="P3" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2078,11 @@
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="P4" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="356" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="356" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2063,8 +2119,11 @@
       <c r="N5" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="P5" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="388" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="388" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -2101,8 +2160,11 @@
       <c r="O6" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="P6" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -2142,8 +2204,11 @@
       <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="P7" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -2180,8 +2245,11 @@
       <c r="N8" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="P8" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -2215,8 +2283,11 @@
       <c r="O9" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="P9" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -2244,8 +2315,11 @@
       <c r="O10" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="P10" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="388" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -2275,6 +2349,9 @@
       </c>
       <c r="N11" s="4" t="s">
         <v>98</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2284,6 +2361,17 @@
     <hyperlink ref="O10" r:id="rId2" xr:uid="{7457AA87-6EFF-CD42-9516-E54D995C1658}"/>
     <hyperlink ref="O9" r:id="rId3" xr:uid="{5DF76DED-137C-A347-B782-DA8AFD5C1CC4}"/>
     <hyperlink ref="O6" r:id="rId4" xr:uid="{7C1835E8-D40C-AF47-886F-371209A256D7}"/>
+    <hyperlink ref="P2" r:id="rId5" location="Article-00001" xr:uid="{A2B95122-3461-0C45-850A-E14104F9DB47}"/>
+    <hyperlink ref="P3:P11" r:id="rId6" location="Article-00001" display="https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001" xr:uid="{4F0DE777-4F59-4D43-8C6E-78284A3B95E1}"/>
+    <hyperlink ref="P3" r:id="rId7" location="Article-00002" xr:uid="{6237E284-55DB-4242-B349-DBE2D7B4693F}"/>
+    <hyperlink ref="P4" r:id="rId8" location="Article-00003" xr:uid="{C0783449-24D4-2042-B0A1-27846FF99144}"/>
+    <hyperlink ref="P5" r:id="rId9" location="Article-00004" xr:uid="{3651EB62-1F03-3242-BD71-7104D00E3092}"/>
+    <hyperlink ref="P6" r:id="rId10" location="Article-00005" xr:uid="{FD9A11AB-B46A-AA4B-BCEB-E85056DB461A}"/>
+    <hyperlink ref="P7" r:id="rId11" location="Article-00006" xr:uid="{0421BF88-EED8-6149-A75C-E0C3E7787B34}"/>
+    <hyperlink ref="P8" r:id="rId12" location="Article-00007" xr:uid="{8C4671A7-258F-184B-8B69-B64AF0CFA137}"/>
+    <hyperlink ref="P9" r:id="rId13" location="Article-00008" xr:uid="{818156E7-B47E-0A45-9D51-5DB0CEC5AADE}"/>
+    <hyperlink ref="P10" r:id="rId14" location="Article-00009" xr:uid="{8DD93D6F-82A3-C748-8CA0-E5AABAA986A9}"/>
+    <hyperlink ref="P11" r:id="rId15" location="Article-00010" xr:uid="{2B21DCAD-4E8D-5044-8CF9-67F6EDBD03CC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45AAF7-4BD7-A544-9C4B-DFAEE71086E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01BF4DF-B97A-4B4D-AA0E-4F03C25BAA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="720" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="5700" yWindow="1160" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="197">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -266,10 +266,6 @@
     <t>https://www.facebook.com/permalink.php?id=110663413612637&amp;story_fbid=367328754612767</t>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -500,10 +496,6 @@
     &lt;/a&gt;
 &lt;/div&gt;</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -672,10 +664,6 @@
   </si>
   <si>
     <t>https://www.foody.com.tw/SalePage/Index/4667728?lang=zh-TW</t>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0004</t>
@@ -826,10 +814,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0005</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -923,10 +907,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00005</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0006</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -995,10 +975,6 @@
   </si>
   <si>
     <t>https://www.dosuper.com.tw/mall/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00006</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1280,10 +1256,6 @@
     &lt;/a&gt;
 &lt;/div&gt;</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00007</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1353,10 +1325,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0009</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1374,10 +1342,6 @@
   </si>
   <si>
     <t>https://www.pon.com.tw/main.php?sub=product&amp;moj=index&amp;cmd=classList&amp;sn=6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00009</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1495,10 +1459,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00010</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0011</t>
   </si>
   <si>
@@ -3635,50 +3595,6 @@
   <si>
     <t>超推防蚊轉</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00012</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00013</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00014</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00019</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00020</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;img src="fig/fig-GroupBuying/GB-0011-高頗莎潘草藥牙膏-01.jpg" class="img-fluid style="width:600px"&gt;</t>
@@ -4494,6 +4410,94 @@
       <t>不用時把袋子通通塞到大象的肚子裡後，就是一個可愛的吊飾！輕巧防水，可愛又實用</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0010+P12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0014+P16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0019</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0020</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4955,13 +4959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE116E-B8D7-5E43-9774-EEEA2D0B8455}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -4985,7 +4989,7 @@
     <col min="17" max="16384" width="37.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="388">
+    <row r="2" spans="1:17" ht="388">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5076,773 +5080,776 @@
         <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="356">
+      <c r="A3" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="356">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="409.6">
+      <c r="A4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="409.6">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="356">
+      <c r="A5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="356">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="P5" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="388">
+      <c r="A6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="388">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="O6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="P6" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="68">
+      <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="68">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="2" t="s">
+    <row r="8" spans="1:17" ht="409.6">
+      <c r="A8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="409.6">
-      <c r="A8" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="P8" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="388">
+      <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="J9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="O9" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="P9" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="388">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="O10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="P10" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="388">
+      <c r="A11" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="388">
-      <c r="A11" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>114</v>
+        <v>184</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="150">
+    <row r="12" spans="1:17" ht="150">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="409.6">
+    <row r="13" spans="1:17" ht="409.6">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="340">
+    <row r="14" spans="1:17" ht="340">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="323">
+    <row r="15" spans="1:17" ht="323">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="323">
+    <row r="16" spans="1:17" ht="323">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409.6">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="409.6">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="409.6">
       <c r="A19" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="34">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="341">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="341">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5852,29 +5859,29 @@
     <hyperlink ref="O10" r:id="rId2" xr:uid="{BF9EF0EE-D625-754B-A060-4E172D75A62A}"/>
     <hyperlink ref="O9" r:id="rId3" xr:uid="{3744230F-0F76-704B-9765-855781D794F7}"/>
     <hyperlink ref="O6" r:id="rId4" xr:uid="{59567C38-F3BD-2545-A3F0-8AFA757C5DF6}"/>
-    <hyperlink ref="P2" r:id="rId5" location="Article-00001" xr:uid="{04E63DA7-01F5-4843-8F4A-DAC88E2A44A5}"/>
-    <hyperlink ref="P3:P11" r:id="rId6" location="Article-00001" display="https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001" xr:uid="{3AF09643-1798-EF41-A096-6740FB6BCCD6}"/>
-    <hyperlink ref="P3" r:id="rId7" location="Article-00002" xr:uid="{C9AFB5A1-2A7C-9645-B73C-CCA5BCE2C119}"/>
-    <hyperlink ref="P4" r:id="rId8" location="Article-00003" xr:uid="{A0D8C386-6AAD-1C42-ABC6-298E9925C39C}"/>
-    <hyperlink ref="P5" r:id="rId9" location="Article-00004" xr:uid="{73957CD1-CC22-E04B-BF71-B23FA509053E}"/>
-    <hyperlink ref="P6" r:id="rId10" location="Article-00005" xr:uid="{76681091-5D5C-AF43-B90D-09CD2569713A}"/>
-    <hyperlink ref="P7" r:id="rId11" location="Article-00006" xr:uid="{C4BB5D78-AF25-854C-A76B-5FF5FECD1199}"/>
-    <hyperlink ref="P8" r:id="rId12" location="Article-00007" xr:uid="{39CADACC-C832-5245-B0AD-5E32622A04B9}"/>
-    <hyperlink ref="P9" r:id="rId13" location="Article-00008" xr:uid="{995D08F8-1A64-5843-B5EC-85CF5F592581}"/>
-    <hyperlink ref="P10" r:id="rId14" location="Article-00009" xr:uid="{4CAF6C93-9A6D-BF44-8B24-BD7200C34D76}"/>
-    <hyperlink ref="P11" r:id="rId15" location="Article-00010" xr:uid="{286BB002-FD01-0944-82DB-0AAF8F1029CA}"/>
-    <hyperlink ref="P12:P21" r:id="rId16" location="Article-00001" display="https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001" xr:uid="{CFA4566B-B129-094D-9725-1F480E479675}"/>
-    <hyperlink ref="P12" r:id="rId17" location="Article-00011" xr:uid="{AAF375E5-CC60-854C-824E-6F7184215CEA}"/>
-    <hyperlink ref="P13" r:id="rId18" location="Article-00012" xr:uid="{B137A726-9554-FE4A-B0C9-EA032AA28575}"/>
-    <hyperlink ref="P14" r:id="rId19" location="Article-00013" xr:uid="{CA3E2BAD-FBAB-8544-9010-D97FAD2277C1}"/>
-    <hyperlink ref="P15" r:id="rId20" location="Article-00014" xr:uid="{34D485D7-C466-2F4C-91DC-FAF2146128B8}"/>
-    <hyperlink ref="P16" r:id="rId21" location="Article-00015" xr:uid="{000B0265-062C-2448-8871-1B13A916C0AB}"/>
-    <hyperlink ref="P17" r:id="rId22" location="Article-00016" xr:uid="{ED6196FE-7942-244D-90B1-A187EE26B6CF}"/>
-    <hyperlink ref="P18" r:id="rId23" location="Article-00017" xr:uid="{1F490441-E7C1-0446-9498-374E6B9C685B}"/>
-    <hyperlink ref="P19" r:id="rId24" location="Article-00018" xr:uid="{999A8F47-DCA3-2148-989C-689C20A455D6}"/>
-    <hyperlink ref="P20" r:id="rId25" location="Article-00019" xr:uid="{65BB48D1-BC24-624D-9FF8-98962561B7DA}"/>
-    <hyperlink ref="P21" r:id="rId26" location="Article-00020" xr:uid="{F7AE124E-D359-7B4C-B0D6-F22A6DD648FD}"/>
-    <hyperlink ref="P22" r:id="rId27" location="Article-00021" xr:uid="{37CC7D4C-81D4-624C-8805-82CD1C69B8F7}"/>
+    <hyperlink ref="P2" r:id="rId5" location="Article-0001" xr:uid="{04E63DA7-01F5-4843-8F4A-DAC88E2A44A5}"/>
+    <hyperlink ref="P3" r:id="rId6" location="Article-0002" xr:uid="{C9AFB5A1-2A7C-9645-B73C-CCA5BCE2C119}"/>
+    <hyperlink ref="P4" r:id="rId7" location="Article-0003" xr:uid="{A0D8C386-6AAD-1C42-ABC6-298E9925C39C}"/>
+    <hyperlink ref="P5" r:id="rId8" location="Article-0004" xr:uid="{73957CD1-CC22-E04B-BF71-B23FA509053E}"/>
+    <hyperlink ref="P6" r:id="rId9" location="Article-0005" xr:uid="{76681091-5D5C-AF43-B90D-09CD2569713A}"/>
+    <hyperlink ref="P7" r:id="rId10" location="Article-0006" xr:uid="{C4BB5D78-AF25-854C-A76B-5FF5FECD1199}"/>
+    <hyperlink ref="P8" r:id="rId11" location="Article-0007" xr:uid="{39CADACC-C832-5245-B0AD-5E32622A04B9}"/>
+    <hyperlink ref="P9" r:id="rId12" location="Article-0008" xr:uid="{995D08F8-1A64-5843-B5EC-85CF5F592581}"/>
+    <hyperlink ref="P10" r:id="rId13" location="Article-0009" xr:uid="{4CAF6C93-9A6D-BF44-8B24-BD7200C34D76}"/>
+    <hyperlink ref="P12" r:id="rId14" location="Article-0011" xr:uid="{AAF375E5-CC60-854C-824E-6F7184215CEA}"/>
+    <hyperlink ref="P13" r:id="rId15" location="Article-0012" xr:uid="{B137A726-9554-FE4A-B0C9-EA032AA28575}"/>
+    <hyperlink ref="P14" r:id="rId16" location="Article-0013" xr:uid="{CA3E2BAD-FBAB-8544-9010-D97FAD2277C1}"/>
+    <hyperlink ref="P15" r:id="rId17" location="Article-0014+P16" xr:uid="{34D485D7-C466-2F4C-91DC-FAF2146128B8}"/>
+    <hyperlink ref="P16" r:id="rId18" location="Article-0015" xr:uid="{000B0265-062C-2448-8871-1B13A916C0AB}"/>
+    <hyperlink ref="P17" r:id="rId19" location="Article-0016" xr:uid="{ED6196FE-7942-244D-90B1-A187EE26B6CF}"/>
+    <hyperlink ref="P18" r:id="rId20" location="Article-0017" xr:uid="{1F490441-E7C1-0446-9498-374E6B9C685B}"/>
+    <hyperlink ref="P19" r:id="rId21" location="Article-0018" xr:uid="{999A8F47-DCA3-2148-989C-689C20A455D6}"/>
+    <hyperlink ref="P21" r:id="rId22" location="Article-0020" xr:uid="{F7AE124E-D359-7B4C-B0D6-F22A6DD648FD}"/>
+    <hyperlink ref="P22" r:id="rId23" location="Article-0021" xr:uid="{37CC7D4C-81D4-624C-8805-82CD1C69B8F7}"/>
+    <hyperlink ref="Q11" r:id="rId24" location="Article-0010+P12" xr:uid="{F23139A4-01DE-5D45-AF59-7485364C96A5}"/>
+    <hyperlink ref="P11" r:id="rId25" location="Article-0010" xr:uid="{2849AEA4-499F-4641-A6FE-690335D0D5D7}"/>
+    <hyperlink ref="P20" r:id="rId26" location="Article-0019" xr:uid="{65BB48D1-BC24-624D-9FF8-98962561B7DA}"/>
+    <hyperlink ref="P12:P21" r:id="rId27" location="Article-00001" display="https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001" xr:uid="{CFA4566B-B129-094D-9725-1F480E479675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01BF4DF-B97A-4B4D-AA0E-4F03C25BAA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DFCC99-86CD-6A45-94F3-31B9BEFA3637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="1160" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="8580" yWindow="1660" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="206">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -4497,6 +4497,105 @@
   </si>
   <si>
     <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0022</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚房用品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aquarist.tw/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-0022</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限時免運費</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1 $690, x2 1180, x3 1,620, x4 1,960</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aquarist 洗漱神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>徹底將洗手台發揮最大效用，想從洗手台裝水才發現臉盆進不去，總是只能裝滿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，有了這個轉接頭，不用硬塞臉盆，直接引水裝滿&lt;br&gt;
+功能一超級省水 :
+水柱充滿氣泡，水表面積擴大，洗淨相同面積省3倍水&lt;br&gt;
+功能二洗臉醒腦 :
+洗臉不再怕有泡泡沒沖乾淨，早起醒腦，往臉上沖冰水超有效&lt;br&gt;
+功能三漱口便捷 :
+不用再使用杯子裝水，嘴湊過去開水龍頭，漱乾淨也就幾秒鐘&lt;br&gt;
+功能四裝水便捷:
+洗手台設計就是無法裝水，現在只要調好角度，解決問題！&lt;br&gt;
+功能五嬰兒洗屁
+使用在嬰兒沖洗屁股非常方便，不用再彎腰駝背
+功能六清潔浴廁
+固定角度後直接灑水至地面，直接刷洗廁所地板</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-0022" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0022-洗漱神器-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0022-洗漱神器-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0022-洗漱神器-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0022" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0022" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4959,13 +5058,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE116E-B8D7-5E43-9774-EEEA2D0B8455}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -5039,407 +5138,383 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="388">
+    <row r="2" spans="1:17" ht="368">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>202</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>205</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="356">
+    <row r="3" spans="1:17" ht="341">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
+      <c r="G3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="409.6">
+    <row r="4" spans="1:17" ht="341">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>106</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>141</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="356">
+    <row r="5" spans="1:17" ht="34">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="388">
+    <row r="6" spans="1:17" ht="409.6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>132</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="68">
+    <row r="7" spans="1:17" ht="409.6">
       <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>127</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>77</v>
+        <v>109</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="409.6">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>81</v>
+      <c r="G8" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="388">
+    <row r="9" spans="1:17" ht="323">
       <c r="A9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>67</v>
+        <v>121</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>90</v>
+        <v>123</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="323">
       <c r="A10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="388">
+    <row r="11" spans="1:17" ht="340">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>101</v>
+      <c r="G11" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="150">
+    <row r="12" spans="1:17" ht="409.6">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -5447,20 +5522,20 @@
       <c r="C12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>107</v>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>142</v>
+      <c r="G12" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>145</v>
@@ -5468,16 +5543,16 @@
       <c r="L12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>160</v>
+      <c r="N12" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="409.6">
+    <row r="13" spans="1:17" ht="150">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -5485,20 +5560,20 @@
       <c r="C13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>111</v>
+      <c r="D13" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>144</v>
+      <c r="G13" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>145</v>
@@ -5506,382 +5581,446 @@
       <c r="L13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>161</v>
+      <c r="N13" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="340">
+    <row r="14" spans="1:17" ht="388">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>147</v>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>148</v>
+        <v>102</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="323">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>163</v>
+        <v>75</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="323">
+    <row r="16" spans="1:17" ht="388">
       <c r="A16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>150</v>
+        <v>89</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>164</v>
+        <v>91</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409.6">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>173</v>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>174</v>
+        <v>82</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="409.6">
+    <row r="18" spans="1:16" ht="68">
       <c r="A18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>172</v>
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>151</v>
+        <v>72</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>166</v>
+        <v>75</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="409.6">
+    <row r="19" spans="1:16" ht="388">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>171</v>
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>152</v>
+        <v>62</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="34">
+    <row r="20" spans="1:16" ht="356">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>135</v>
+        <v>52</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>153</v>
+        <v>54</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>168</v>
+        <v>56</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="341">
+    <row r="21" spans="1:16" ht="409.6">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>139</v>
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>140</v>
+        <v>42</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>154</v>
+        <v>44</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="341">
+    <row r="22" spans="1:16" ht="356">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>159</v>
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>158</v>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>196</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="388">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
+    <sortCondition descending="1" ref="A2:A23"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O7" r:id="rId1" xr:uid="{B506B555-5525-2742-86B2-F3666772DD90}"/>
-    <hyperlink ref="O10" r:id="rId2" xr:uid="{BF9EF0EE-D625-754B-A060-4E172D75A62A}"/>
-    <hyperlink ref="O9" r:id="rId3" xr:uid="{3744230F-0F76-704B-9765-855781D794F7}"/>
-    <hyperlink ref="O6" r:id="rId4" xr:uid="{59567C38-F3BD-2545-A3F0-8AFA757C5DF6}"/>
-    <hyperlink ref="P2" r:id="rId5" location="Article-0001" xr:uid="{04E63DA7-01F5-4843-8F4A-DAC88E2A44A5}"/>
-    <hyperlink ref="P3" r:id="rId6" location="Article-0002" xr:uid="{C9AFB5A1-2A7C-9645-B73C-CCA5BCE2C119}"/>
-    <hyperlink ref="P4" r:id="rId7" location="Article-0003" xr:uid="{A0D8C386-6AAD-1C42-ABC6-298E9925C39C}"/>
-    <hyperlink ref="P5" r:id="rId8" location="Article-0004" xr:uid="{73957CD1-CC22-E04B-BF71-B23FA509053E}"/>
-    <hyperlink ref="P6" r:id="rId9" location="Article-0005" xr:uid="{76681091-5D5C-AF43-B90D-09CD2569713A}"/>
-    <hyperlink ref="P7" r:id="rId10" location="Article-0006" xr:uid="{C4BB5D78-AF25-854C-A76B-5FF5FECD1199}"/>
-    <hyperlink ref="P8" r:id="rId11" location="Article-0007" xr:uid="{39CADACC-C832-5245-B0AD-5E32622A04B9}"/>
-    <hyperlink ref="P9" r:id="rId12" location="Article-0008" xr:uid="{995D08F8-1A64-5843-B5EC-85CF5F592581}"/>
-    <hyperlink ref="P10" r:id="rId13" location="Article-0009" xr:uid="{4CAF6C93-9A6D-BF44-8B24-BD7200C34D76}"/>
-    <hyperlink ref="P12" r:id="rId14" location="Article-0011" xr:uid="{AAF375E5-CC60-854C-824E-6F7184215CEA}"/>
-    <hyperlink ref="P13" r:id="rId15" location="Article-0012" xr:uid="{B137A726-9554-FE4A-B0C9-EA032AA28575}"/>
-    <hyperlink ref="P14" r:id="rId16" location="Article-0013" xr:uid="{CA3E2BAD-FBAB-8544-9010-D97FAD2277C1}"/>
-    <hyperlink ref="P15" r:id="rId17" location="Article-0014+P16" xr:uid="{34D485D7-C466-2F4C-91DC-FAF2146128B8}"/>
-    <hyperlink ref="P16" r:id="rId18" location="Article-0015" xr:uid="{000B0265-062C-2448-8871-1B13A916C0AB}"/>
-    <hyperlink ref="P17" r:id="rId19" location="Article-0016" xr:uid="{ED6196FE-7942-244D-90B1-A187EE26B6CF}"/>
-    <hyperlink ref="P18" r:id="rId20" location="Article-0017" xr:uid="{1F490441-E7C1-0446-9498-374E6B9C685B}"/>
-    <hyperlink ref="P19" r:id="rId21" location="Article-0018" xr:uid="{999A8F47-DCA3-2148-989C-689C20A455D6}"/>
-    <hyperlink ref="P21" r:id="rId22" location="Article-0020" xr:uid="{F7AE124E-D359-7B4C-B0D6-F22A6DD648FD}"/>
-    <hyperlink ref="P22" r:id="rId23" location="Article-0021" xr:uid="{37CC7D4C-81D4-624C-8805-82CD1C69B8F7}"/>
-    <hyperlink ref="Q11" r:id="rId24" location="Article-0010+P12" xr:uid="{F23139A4-01DE-5D45-AF59-7485364C96A5}"/>
-    <hyperlink ref="P11" r:id="rId25" location="Article-0010" xr:uid="{2849AEA4-499F-4641-A6FE-690335D0D5D7}"/>
-    <hyperlink ref="P20" r:id="rId26" location="Article-0019" xr:uid="{65BB48D1-BC24-624D-9FF8-98962561B7DA}"/>
+    <hyperlink ref="O18" r:id="rId1" xr:uid="{B506B555-5525-2742-86B2-F3666772DD90}"/>
+    <hyperlink ref="O15" r:id="rId2" xr:uid="{BF9EF0EE-D625-754B-A060-4E172D75A62A}"/>
+    <hyperlink ref="O16" r:id="rId3" xr:uid="{3744230F-0F76-704B-9765-855781D794F7}"/>
+    <hyperlink ref="O19" r:id="rId4" xr:uid="{59567C38-F3BD-2545-A3F0-8AFA757C5DF6}"/>
+    <hyperlink ref="P23" r:id="rId5" location="Article-0001" xr:uid="{04E63DA7-01F5-4843-8F4A-DAC88E2A44A5}"/>
+    <hyperlink ref="P22" r:id="rId6" location="Article-0002" xr:uid="{C9AFB5A1-2A7C-9645-B73C-CCA5BCE2C119}"/>
+    <hyperlink ref="P21" r:id="rId7" location="Article-0003" xr:uid="{A0D8C386-6AAD-1C42-ABC6-298E9925C39C}"/>
+    <hyperlink ref="P20" r:id="rId8" location="Article-0004" xr:uid="{73957CD1-CC22-E04B-BF71-B23FA509053E}"/>
+    <hyperlink ref="P19" r:id="rId9" location="Article-0005" xr:uid="{76681091-5D5C-AF43-B90D-09CD2569713A}"/>
+    <hyperlink ref="P18" r:id="rId10" location="Article-0006" xr:uid="{C4BB5D78-AF25-854C-A76B-5FF5FECD1199}"/>
+    <hyperlink ref="P17" r:id="rId11" location="Article-0007" xr:uid="{39CADACC-C832-5245-B0AD-5E32622A04B9}"/>
+    <hyperlink ref="P16" r:id="rId12" location="Article-0008" xr:uid="{995D08F8-1A64-5843-B5EC-85CF5F592581}"/>
+    <hyperlink ref="P15" r:id="rId13" location="Article-0009" xr:uid="{4CAF6C93-9A6D-BF44-8B24-BD7200C34D76}"/>
+    <hyperlink ref="P13" r:id="rId14" location="Article-0011" xr:uid="{AAF375E5-CC60-854C-824E-6F7184215CEA}"/>
+    <hyperlink ref="P12" r:id="rId15" location="Article-0012" xr:uid="{B137A726-9554-FE4A-B0C9-EA032AA28575}"/>
+    <hyperlink ref="P11" r:id="rId16" location="Article-0013" xr:uid="{CA3E2BAD-FBAB-8544-9010-D97FAD2277C1}"/>
+    <hyperlink ref="P10" r:id="rId17" location="Article-0014+P16" xr:uid="{34D485D7-C466-2F4C-91DC-FAF2146128B8}"/>
+    <hyperlink ref="P9" r:id="rId18" location="Article-0015" xr:uid="{000B0265-062C-2448-8871-1B13A916C0AB}"/>
+    <hyperlink ref="P8" r:id="rId19" location="Article-0016" xr:uid="{ED6196FE-7942-244D-90B1-A187EE26B6CF}"/>
+    <hyperlink ref="P7" r:id="rId20" location="Article-0017" xr:uid="{1F490441-E7C1-0446-9498-374E6B9C685B}"/>
+    <hyperlink ref="P6" r:id="rId21" location="Article-0018" xr:uid="{999A8F47-DCA3-2148-989C-689C20A455D6}"/>
+    <hyperlink ref="P4" r:id="rId22" location="Article-0020" xr:uid="{F7AE124E-D359-7B4C-B0D6-F22A6DD648FD}"/>
+    <hyperlink ref="P3" r:id="rId23" location="Article-0021" xr:uid="{37CC7D4C-81D4-624C-8805-82CD1C69B8F7}"/>
+    <hyperlink ref="Q14" r:id="rId24" location="Article-0010+P12" xr:uid="{F23139A4-01DE-5D45-AF59-7485364C96A5}"/>
+    <hyperlink ref="P14" r:id="rId25" location="Article-0010" xr:uid="{2849AEA4-499F-4641-A6FE-690335D0D5D7}"/>
+    <hyperlink ref="P5" r:id="rId26" location="Article-0019" xr:uid="{65BB48D1-BC24-624D-9FF8-98962561B7DA}"/>
     <hyperlink ref="P12:P21" r:id="rId27" location="Article-00001" display="https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001" xr:uid="{CFA4566B-B129-094D-9725-1F480E479675}"/>
+    <hyperlink ref="O2" r:id="rId28" xr:uid="{7D182D4C-A294-0C45-B0AC-ADCF589E5989}"/>
+    <hyperlink ref="P2" r:id="rId29" location="Article-0022" xr:uid="{20124343-A0B6-5343-BA0C-2068CA38AC0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DFCC99-86CD-6A45-94F3-31B9BEFA3637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD2FDB-3209-1940-A8B9-DC125222B272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1660" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="3300" yWindow="3000" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="217">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -4597,6 +4597,76 @@
     &lt;/a&gt;
 &lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0023</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽屜式收納籃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑/白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$850 不含運費</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$700</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊凡 Evonne</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽屜式的收納籃～很美觀又實用！
+原本一組850 不含運(不能挑色). 8組以上一組才 $700, 而且 白/黑 可以挑色!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div id="carouselExampleIndicators-0023" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    &lt;ol class="carousel-indicators"&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="3"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="4"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="5"&gt;&lt;/li&gt;
+          &lt;li data-target="#carouselExampleIndicators" data-slide-to="6"&gt;&lt;/li&gt;
+    &lt;/ol&gt;
+    &lt;div class="carousel-inner"&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-06.jpg.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+     &lt;/div&gt;
+    &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0023" role="button" data-slide="prev"&gt;
+         &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Previous&lt;/span&gt;
+     &lt;/a&gt;
+     &lt;a class="carousel-control-next" href="#carouselExampleIndicators-0023" role="button" data-slide="next"&gt;
+         &lt;span class="carousel-control-next-icon" aria-hidden="true"&gt;&lt;/span&gt;
+         &lt;span class="sr-only"&gt;Next&lt;/span&gt;
+    &lt;/a&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.manmanshop.co/products/%E3%80%90%E6%85%A2%E6%85%A2%E5%AE%B6%E5%B1%85%E3%80%91%E5%8D%87%E7%B4%9A%E6%AC%BE%E5%BB%9A%E6%88%BF%E6%B5%B4%E5%AE%A4%E9%9B%99%E5%B1%A4%E6%8A%BD%E5%B1%9C%E7%BD%AE%E7%89%A9%E6%9E%B6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5058,13 +5128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE116E-B8D7-5E43-9774-EEEA2D0B8455}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -5984,6 +6054,47 @@
       </c>
       <c r="P23" s="3" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="409.6">
+      <c r="A24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6021,6 +6132,7 @@
     <hyperlink ref="P12:P21" r:id="rId27" location="Article-00001" display="https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001" xr:uid="{CFA4566B-B129-094D-9725-1F480E479675}"/>
     <hyperlink ref="O2" r:id="rId28" xr:uid="{7D182D4C-A294-0C45-B0AC-ADCF589E5989}"/>
     <hyperlink ref="P2" r:id="rId29" location="Article-0022" xr:uid="{20124343-A0B6-5343-BA0C-2068CA38AC0C}"/>
+    <hyperlink ref="O24" r:id="rId30" xr:uid="{FF01F4E5-FC10-E643-9038-27F0E54F300C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD2FDB-3209-1940-A8B9-DC125222B272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FBC26E-437A-BB4A-BAD8-CA80BC0FA405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3000" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="3300" yWindow="2840" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -5131,10 +5131,10 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -5208,82 +5208,85 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="368">
+    <row r="2" spans="1:17" ht="409.6">
       <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="368">
+      <c r="A3" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="341">
-      <c r="A3" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>158</v>
+        <v>198</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="341">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -5291,20 +5294,20 @@
       <c r="C4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>139</v>
+      <c r="D4" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>141</v>
+      <c r="G4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>145</v>
@@ -5313,15 +5316,15 @@
         <v>109</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="34">
+    <row r="5" spans="1:17" ht="341">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -5329,37 +5332,37 @@
       <c r="C5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>134</v>
+      <c r="D5" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>145</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="409.6">
+    <row r="6" spans="1:17" ht="34">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -5367,37 +5370,37 @@
       <c r="C6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>171</v>
+      <c r="D6" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="409.6">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -5405,20 +5408,20 @@
       <c r="C7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>128</v>
+      <c r="D7" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>172</v>
+      <c r="G7" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>145</v>
@@ -5427,15 +5430,15 @@
         <v>109</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="409.6">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -5444,19 +5447,19 @@
         <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
+      <c r="G8" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>145</v>
@@ -5465,15 +5468,15 @@
         <v>109</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="323">
+    <row r="9" spans="1:17" ht="409.6">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -5482,16 +5485,19 @@
         <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>145</v>
@@ -5500,15 +5506,15 @@
         <v>109</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="323">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -5516,20 +5522,17 @@
       <c r="C10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>118</v>
+      <c r="D10" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>149</v>
+        <v>123</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>145</v>
@@ -5538,15 +5541,15 @@
         <v>109</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="340">
+    <row r="11" spans="1:17" ht="323">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -5554,37 +5557,37 @@
       <c r="C11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>114</v>
+      <c r="D11" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>147</v>
+      <c r="G11" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>145</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="409.6">
+    <row r="12" spans="1:17" ht="340">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
@@ -5593,36 +5596,36 @@
         <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="150">
+    <row r="13" spans="1:17" ht="409.6">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -5630,20 +5633,20 @@
       <c r="C13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>107</v>
+      <c r="D13" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>142</v>
+      <c r="G13" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>145</v>
@@ -5651,250 +5654,247 @@
       <c r="L13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>160</v>
+      <c r="N13" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="388">
+    <row r="14" spans="1:17" ht="150">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>104</v>
+        <v>145</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="388">
       <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>98</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="388">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>92</v>
+      <c r="N16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="409.6">
+    <row r="17" spans="1:16" ht="388">
       <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="68">
+    <row r="18" spans="1:16" ht="409.6">
       <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>68</v>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="388">
+    <row r="19" spans="1:16" ht="68">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="356">
+    <row r="20" spans="1:16" ht="388">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -5903,236 +5903,236 @@
         <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="409.6">
+    <row r="21" spans="1:16" ht="356">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="356">
+    <row r="22" spans="1:16" ht="409.6">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="388">
+    <row r="23" spans="1:16" ht="356">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="388">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="409.6">
-      <c r="A24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
-    <sortCondition descending="1" ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q24">
+    <sortCondition descending="1" ref="A2:A24"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O18" r:id="rId1" xr:uid="{B506B555-5525-2742-86B2-F3666772DD90}"/>
-    <hyperlink ref="O15" r:id="rId2" xr:uid="{BF9EF0EE-D625-754B-A060-4E172D75A62A}"/>
-    <hyperlink ref="O16" r:id="rId3" xr:uid="{3744230F-0F76-704B-9765-855781D794F7}"/>
-    <hyperlink ref="O19" r:id="rId4" xr:uid="{59567C38-F3BD-2545-A3F0-8AFA757C5DF6}"/>
-    <hyperlink ref="P23" r:id="rId5" location="Article-0001" xr:uid="{04E63DA7-01F5-4843-8F4A-DAC88E2A44A5}"/>
-    <hyperlink ref="P22" r:id="rId6" location="Article-0002" xr:uid="{C9AFB5A1-2A7C-9645-B73C-CCA5BCE2C119}"/>
-    <hyperlink ref="P21" r:id="rId7" location="Article-0003" xr:uid="{A0D8C386-6AAD-1C42-ABC6-298E9925C39C}"/>
-    <hyperlink ref="P20" r:id="rId8" location="Article-0004" xr:uid="{73957CD1-CC22-E04B-BF71-B23FA509053E}"/>
-    <hyperlink ref="P19" r:id="rId9" location="Article-0005" xr:uid="{76681091-5D5C-AF43-B90D-09CD2569713A}"/>
-    <hyperlink ref="P18" r:id="rId10" location="Article-0006" xr:uid="{C4BB5D78-AF25-854C-A76B-5FF5FECD1199}"/>
-    <hyperlink ref="P17" r:id="rId11" location="Article-0007" xr:uid="{39CADACC-C832-5245-B0AD-5E32622A04B9}"/>
-    <hyperlink ref="P16" r:id="rId12" location="Article-0008" xr:uid="{995D08F8-1A64-5843-B5EC-85CF5F592581}"/>
-    <hyperlink ref="P15" r:id="rId13" location="Article-0009" xr:uid="{4CAF6C93-9A6D-BF44-8B24-BD7200C34D76}"/>
-    <hyperlink ref="P13" r:id="rId14" location="Article-0011" xr:uid="{AAF375E5-CC60-854C-824E-6F7184215CEA}"/>
-    <hyperlink ref="P12" r:id="rId15" location="Article-0012" xr:uid="{B137A726-9554-FE4A-B0C9-EA032AA28575}"/>
-    <hyperlink ref="P11" r:id="rId16" location="Article-0013" xr:uid="{CA3E2BAD-FBAB-8544-9010-D97FAD2277C1}"/>
-    <hyperlink ref="P10" r:id="rId17" location="Article-0014+P16" xr:uid="{34D485D7-C466-2F4C-91DC-FAF2146128B8}"/>
-    <hyperlink ref="P9" r:id="rId18" location="Article-0015" xr:uid="{000B0265-062C-2448-8871-1B13A916C0AB}"/>
-    <hyperlink ref="P8" r:id="rId19" location="Article-0016" xr:uid="{ED6196FE-7942-244D-90B1-A187EE26B6CF}"/>
-    <hyperlink ref="P7" r:id="rId20" location="Article-0017" xr:uid="{1F490441-E7C1-0446-9498-374E6B9C685B}"/>
-    <hyperlink ref="P6" r:id="rId21" location="Article-0018" xr:uid="{999A8F47-DCA3-2148-989C-689C20A455D6}"/>
-    <hyperlink ref="P4" r:id="rId22" location="Article-0020" xr:uid="{F7AE124E-D359-7B4C-B0D6-F22A6DD648FD}"/>
-    <hyperlink ref="P3" r:id="rId23" location="Article-0021" xr:uid="{37CC7D4C-81D4-624C-8805-82CD1C69B8F7}"/>
-    <hyperlink ref="Q14" r:id="rId24" location="Article-0010+P12" xr:uid="{F23139A4-01DE-5D45-AF59-7485364C96A5}"/>
-    <hyperlink ref="P14" r:id="rId25" location="Article-0010" xr:uid="{2849AEA4-499F-4641-A6FE-690335D0D5D7}"/>
-    <hyperlink ref="P5" r:id="rId26" location="Article-0019" xr:uid="{65BB48D1-BC24-624D-9FF8-98962561B7DA}"/>
+    <hyperlink ref="O19" r:id="rId1" xr:uid="{B506B555-5525-2742-86B2-F3666772DD90}"/>
+    <hyperlink ref="O16" r:id="rId2" xr:uid="{BF9EF0EE-D625-754B-A060-4E172D75A62A}"/>
+    <hyperlink ref="O17" r:id="rId3" xr:uid="{3744230F-0F76-704B-9765-855781D794F7}"/>
+    <hyperlink ref="O20" r:id="rId4" xr:uid="{59567C38-F3BD-2545-A3F0-8AFA757C5DF6}"/>
+    <hyperlink ref="P24" r:id="rId5" location="Article-0001" xr:uid="{04E63DA7-01F5-4843-8F4A-DAC88E2A44A5}"/>
+    <hyperlink ref="P23" r:id="rId6" location="Article-0002" xr:uid="{C9AFB5A1-2A7C-9645-B73C-CCA5BCE2C119}"/>
+    <hyperlink ref="P22" r:id="rId7" location="Article-0003" xr:uid="{A0D8C386-6AAD-1C42-ABC6-298E9925C39C}"/>
+    <hyperlink ref="P21" r:id="rId8" location="Article-0004" xr:uid="{73957CD1-CC22-E04B-BF71-B23FA509053E}"/>
+    <hyperlink ref="P20" r:id="rId9" location="Article-0005" xr:uid="{76681091-5D5C-AF43-B90D-09CD2569713A}"/>
+    <hyperlink ref="P19" r:id="rId10" location="Article-0006" xr:uid="{C4BB5D78-AF25-854C-A76B-5FF5FECD1199}"/>
+    <hyperlink ref="P18" r:id="rId11" location="Article-0007" xr:uid="{39CADACC-C832-5245-B0AD-5E32622A04B9}"/>
+    <hyperlink ref="P17" r:id="rId12" location="Article-0008" xr:uid="{995D08F8-1A64-5843-B5EC-85CF5F592581}"/>
+    <hyperlink ref="P16" r:id="rId13" location="Article-0009" xr:uid="{4CAF6C93-9A6D-BF44-8B24-BD7200C34D76}"/>
+    <hyperlink ref="P14" r:id="rId14" location="Article-0011" xr:uid="{AAF375E5-CC60-854C-824E-6F7184215CEA}"/>
+    <hyperlink ref="P13" r:id="rId15" location="Article-0012" xr:uid="{B137A726-9554-FE4A-B0C9-EA032AA28575}"/>
+    <hyperlink ref="P12" r:id="rId16" location="Article-0013" xr:uid="{CA3E2BAD-FBAB-8544-9010-D97FAD2277C1}"/>
+    <hyperlink ref="P11" r:id="rId17" location="Article-0014+P16" xr:uid="{34D485D7-C466-2F4C-91DC-FAF2146128B8}"/>
+    <hyperlink ref="P10" r:id="rId18" location="Article-0015" xr:uid="{000B0265-062C-2448-8871-1B13A916C0AB}"/>
+    <hyperlink ref="P9" r:id="rId19" location="Article-0016" xr:uid="{ED6196FE-7942-244D-90B1-A187EE26B6CF}"/>
+    <hyperlink ref="P8" r:id="rId20" location="Article-0017" xr:uid="{1F490441-E7C1-0446-9498-374E6B9C685B}"/>
+    <hyperlink ref="P7" r:id="rId21" location="Article-0018" xr:uid="{999A8F47-DCA3-2148-989C-689C20A455D6}"/>
+    <hyperlink ref="P5" r:id="rId22" location="Article-0020" xr:uid="{F7AE124E-D359-7B4C-B0D6-F22A6DD648FD}"/>
+    <hyperlink ref="P4" r:id="rId23" location="Article-0021" xr:uid="{37CC7D4C-81D4-624C-8805-82CD1C69B8F7}"/>
+    <hyperlink ref="Q15" r:id="rId24" location="Article-0010+P12" xr:uid="{F23139A4-01DE-5D45-AF59-7485364C96A5}"/>
+    <hyperlink ref="P15" r:id="rId25" location="Article-0010" xr:uid="{2849AEA4-499F-4641-A6FE-690335D0D5D7}"/>
+    <hyperlink ref="P6" r:id="rId26" location="Article-0019" xr:uid="{65BB48D1-BC24-624D-9FF8-98962561B7DA}"/>
     <hyperlink ref="P12:P21" r:id="rId27" location="Article-00001" display="https://tcwang.github.io/AiCity2019/AiCityB-79-GroupBuying.html#Article-00001" xr:uid="{CFA4566B-B129-094D-9725-1F480E479675}"/>
-    <hyperlink ref="O2" r:id="rId28" xr:uid="{7D182D4C-A294-0C45-B0AC-ADCF589E5989}"/>
-    <hyperlink ref="P2" r:id="rId29" location="Article-0022" xr:uid="{20124343-A0B6-5343-BA0C-2068CA38AC0C}"/>
-    <hyperlink ref="O24" r:id="rId30" xr:uid="{FF01F4E5-FC10-E643-9038-27F0E54F300C}"/>
+    <hyperlink ref="O3" r:id="rId28" xr:uid="{7D182D4C-A294-0C45-B0AC-ADCF589E5989}"/>
+    <hyperlink ref="P3" r:id="rId29" location="Article-0022" xr:uid="{20124343-A0B6-5343-BA0C-2068CA38AC0C}"/>
+    <hyperlink ref="O2" r:id="rId30" xr:uid="{FF01F4E5-FC10-E643-9038-27F0E54F300C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-79-GroupBuying.xlsx
+++ b/db/AiCity-79-GroupBuying.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FBC26E-437A-BB4A-BAD8-CA80BC0FA405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40181DD4-E1EE-D54D-BD42-5A59D2C33F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2840" windowWidth="44240" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
@@ -4636,7 +4636,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div id="carouselExampleIndicators-0023" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
+    <t>https://www.manmanshop.co/products/%E3%80%90%E6%85%A2%E6%85%A2%E5%AE%B6%E5%B1%85%E3%80%91%E5%8D%87%E7%B4%9A%E6%AC%BE%E5%BB%9A%E6%88%BF%E6%B5%B4%E5%AE%A4%E9%9B%99%E5%B1%A4%E6%8A%BD%E5%B1%9C%E7%BD%AE%E7%89%A9%E6%9E%B6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div id="carouselExampleIndicators-0023" class="carousel slide img-fluid" data-ride="carousel" style="width:600px"&gt;
     &lt;ol class="carousel-indicators"&gt;
           &lt;li data-target="#carouselExampleIndicators" data-slide-to="1" class="active"&gt;&lt;/li&gt;
           &lt;li data-target="#carouselExampleIndicators" data-slide-to="2"&gt;&lt;/li&gt;
@@ -4646,12 +4651,126 @@
           &lt;li data-target="#carouselExampleIndicators" data-slide-to="6"&gt;&lt;/li&gt;
     &lt;/ol&gt;
     &lt;div class="carousel-inner"&gt;
-         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
-         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-抽屜式收納籃-06.jpg.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item active"&gt; &lt;img src="fig/fig-GroupBuying/GB-0023-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抽屜式收納籃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-01.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt; &lt;img src="fig/fig-GroupBuying/GB-0023-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抽屜式收納籃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-02.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抽屜式收納籃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-03.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抽屜式收納籃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-04.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抽屜式收納籃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-05.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
+         &lt;div class="carousel-item"&gt;&lt;img src="fig/fig-GroupBuying/GB-0023-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抽屜式收納籃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-06.jpg" class="d-block w-100" alt="..."&gt;&lt;/div&gt;
      &lt;/div&gt;
     &lt;a class="carousel-control-prev" href="#carouselExampleIndicators-0023" role="button" data-slide="prev"&gt;
          &lt;span class="carousel-control-prev-icon" aria-hidden="true"&gt;&lt;/span&gt;
@@ -4662,10 +4781,7 @@
          &lt;span class="sr-only"&gt;Next&lt;/span&gt;
     &lt;/a&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.manmanshop.co/products/%E3%80%90%E6%85%A2%E6%85%A2%E5%AE%B6%E5%B1%85%E3%80%91%E5%8D%87%E7%B4%9A%E6%AC%BE%E5%BB%9A%E6%88%BF%E6%B5%B4%E5%AE%A4%E9%9B%99%E5%B1%A4%E6%8A%BD%E5%B1%9C%E7%BD%AE%E7%89%A9%E6%9E%B6</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5134,7 +5250,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -5243,10 +5359,10 @@
         <v>213</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="368">
